--- a/case-study/config-henn.xlsx
+++ b/case-study/config-henn.xlsx
@@ -86,9 +86,6 @@
     <t>decrypt_pass</t>
   </si>
   <si>
-    <t>fastq_file_1</t>
-  </si>
-  <si>
     <t>fastq_file_2</t>
   </si>
   <si>
@@ -699,336 +696,6 @@
   </si>
   <si>
     <t>fastqdump_prog</t>
-  </si>
-  <si>
-    <t>ftp://ftp-trace.ncbi.nlm.nih.gov/sra/sra-instant/reads/ByExp/sra/SRX/SRX259/SRX259435/SRR805725/SRR805725.sra</t>
-  </si>
-  <si>
-    <t>ftp://ftp-trace.ncbi.nlm.nih.gov/sra/sra-instant/reads/ByExp/sra/SRX/SRX259/SRX259436/SRR805726/SRR805726.sra</t>
-  </si>
-  <si>
-    <t>ftp://ftp-trace.ncbi.nlm.nih.gov/sra/sra-instant/reads/ByExp/sra/SRX/SRX259/SRX259437/SRR805727/SRR805727.sra</t>
-  </si>
-  <si>
-    <t>ftp://ftp-trace.ncbi.nlm.nih.gov/sra/sra-instant/reads/ByExp/sra/SRX/SRX259/SRX259438/SRR805728/SRR805728.sra</t>
-  </si>
-  <si>
-    <t>ftp://ftp-trace.ncbi.nlm.nih.gov/sra/sra-instant/reads/ByExp/sra/SRX/SRX259/SRX259439/SRR805729/SRR805729.sra</t>
-  </si>
-  <si>
-    <t>ftp://ftp-trace.ncbi.nlm.nih.gov/sra/sra-instant/reads/ByExp/sra/SRX/SRX259/SRX259440/SRR805730/SRR805730.sra</t>
-  </si>
-  <si>
-    <t>ftp://ftp-trace.ncbi.nlm.nih.gov/sra/sra-instant/reads/ByExp/sra/SRX/SRX259/SRX259441/SRR805731/SRR805731.sra</t>
-  </si>
-  <si>
-    <t>ftp://ftp-trace.ncbi.nlm.nih.gov/sra/sra-instant/reads/ByExp/sra/SRX/SRX259/SRX259442/SRR805732/SRR805732.sra</t>
-  </si>
-  <si>
-    <t>ftp://ftp-trace.ncbi.nlm.nih.gov/sra/sra-instant/reads/ByExp/sra/SRX/SRX259/SRX259443/SRR805733/SRR805733.sra</t>
-  </si>
-  <si>
-    <t>ftp://ftp-trace.ncbi.nlm.nih.gov/sra/sra-instant/reads/ByExp/sra/SRX/SRX259/SRX259444/SRR805734/SRR805734.sra</t>
-  </si>
-  <si>
-    <t>ftp://ftp-trace.ncbi.nlm.nih.gov/sra/sra-instant/reads/ByExp/sra/SRX/SRX259/SRX259445/SRR805735/SRR805735.sra</t>
-  </si>
-  <si>
-    <t>ftp://ftp-trace.ncbi.nlm.nih.gov/sra/sra-instant/reads/ByExp/sra/SRX/SRX259/SRX259446/SRR805736/SRR805736.sra</t>
-  </si>
-  <si>
-    <t>ftp://ftp-trace.ncbi.nlm.nih.gov/sra/sra-instant/reads/ByExp/sra/SRX/SRX259/SRX259447/SRR805737/SRR805737.sra</t>
-  </si>
-  <si>
-    <t>ftp://ftp-trace.ncbi.nlm.nih.gov/sra/sra-instant/reads/ByExp/sra/SRX/SRX259/SRX259448/SRR805738/SRR805738.sra</t>
-  </si>
-  <si>
-    <t>ftp://ftp-trace.ncbi.nlm.nih.gov/sra/sra-instant/reads/ByExp/sra/SRX/SRX259/SRX259449/SRR805739/SRR805739.sra</t>
-  </si>
-  <si>
-    <t>ftp://ftp-trace.ncbi.nlm.nih.gov/sra/sra-instant/reads/ByExp/sra/SRX/SRX259/SRX259450/SRR805740/SRR805740.sra</t>
-  </si>
-  <si>
-    <t>ftp://ftp-trace.ncbi.nlm.nih.gov/sra/sra-instant/reads/ByExp/sra/SRX/SRX259/SRX259451/SRR805741/SRR805741.sra</t>
-  </si>
-  <si>
-    <t>ftp://ftp-trace.ncbi.nlm.nih.gov/sra/sra-instant/reads/ByExp/sra/SRX/SRX259/SRX259452/SRR805742/SRR805742.sra</t>
-  </si>
-  <si>
-    <t>ftp://ftp-trace.ncbi.nlm.nih.gov/sra/sra-instant/reads/ByExp/sra/SRX/SRX259/SRX259453/SRR805743/SRR805743.sra</t>
-  </si>
-  <si>
-    <t>ftp://ftp-trace.ncbi.nlm.nih.gov/sra/sra-instant/reads/ByExp/sra/SRX/SRX259/SRX259454/SRR805744/SRR805744.sra</t>
-  </si>
-  <si>
-    <t>ftp://ftp-trace.ncbi.nlm.nih.gov/sra/sra-instant/reads/ByExp/sra/SRX/SRX259/SRX259455/SRR805745/SRR805745.sra</t>
-  </si>
-  <si>
-    <t>ftp://ftp-trace.ncbi.nlm.nih.gov/sra/sra-instant/reads/ByExp/sra/SRX/SRX259/SRX259456/SRR805746/SRR805746.sra</t>
-  </si>
-  <si>
-    <t>ftp://ftp-trace.ncbi.nlm.nih.gov/sra/sra-instant/reads/ByExp/sra/SRX/SRX259/SRX259457/SRR805747/SRR805747.sra</t>
-  </si>
-  <si>
-    <t>ftp://ftp-trace.ncbi.nlm.nih.gov/sra/sra-instant/reads/ByExp/sra/SRX/SRX259/SRX259458/SRR805748/SRR805748.sra</t>
-  </si>
-  <si>
-    <t>ftp://ftp-trace.ncbi.nlm.nih.gov/sra/sra-instant/reads/ByExp/sra/SRX/SRX259/SRX259459/SRR805749/SRR805749.sra</t>
-  </si>
-  <si>
-    <t>ftp://ftp-trace.ncbi.nlm.nih.gov/sra/sra-instant/reads/ByExp/sra/SRX/SRX259/SRX259460/SRR805750/SRR805750.sra</t>
-  </si>
-  <si>
-    <t>ftp://ftp-trace.ncbi.nlm.nih.gov/sra/sra-instant/reads/ByExp/sra/SRX/SRX259/SRX259461/SRR805751/SRR805751.sra</t>
-  </si>
-  <si>
-    <t>ftp://ftp-trace.ncbi.nlm.nih.gov/sra/sra-instant/reads/ByExp/sra/SRX/SRX259/SRX259462/SRR805752/SRR805752.sra</t>
-  </si>
-  <si>
-    <t>ftp://ftp-trace.ncbi.nlm.nih.gov/sra/sra-instant/reads/ByExp/sra/SRX/SRX259/SRX259463/SRR805753/SRR805753.sra</t>
-  </si>
-  <si>
-    <t>ftp://ftp-trace.ncbi.nlm.nih.gov/sra/sra-instant/reads/ByExp/sra/SRX/SRX259/SRX259464/SRR805754/SRR805754.sra</t>
-  </si>
-  <si>
-    <t>ftp://ftp-trace.ncbi.nlm.nih.gov/sra/sra-instant/reads/ByExp/sra/SRX/SRX259/SRX259465/SRR805755/SRR805755.sra</t>
-  </si>
-  <si>
-    <t>ftp://ftp-trace.ncbi.nlm.nih.gov/sra/sra-instant/reads/ByExp/sra/SRX/SRX259/SRX259466/SRR805756/SRR805756.sra</t>
-  </si>
-  <si>
-    <t>ftp://ftp-trace.ncbi.nlm.nih.gov/sra/sra-instant/reads/ByExp/sra/SRX/SRX259/SRX259467/SRR805757/SRR805757.sra</t>
-  </si>
-  <si>
-    <t>ftp://ftp-trace.ncbi.nlm.nih.gov/sra/sra-instant/reads/ByExp/sra/SRX/SRX259/SRX259468/SRR805758/SRR805758.sra</t>
-  </si>
-  <si>
-    <t>ftp://ftp-trace.ncbi.nlm.nih.gov/sra/sra-instant/reads/ByExp/sra/SRX/SRX259/SRX259469/SRR805759/SRR805759.sra</t>
-  </si>
-  <si>
-    <t>ftp://ftp-trace.ncbi.nlm.nih.gov/sra/sra-instant/reads/ByExp/sra/SRX/SRX259/SRX259470/SRR805760/SRR805760.sra</t>
-  </si>
-  <si>
-    <t>ftp://ftp-trace.ncbi.nlm.nih.gov/sra/sra-instant/reads/ByExp/sra/SRX/SRX259/SRX259471/SRR805761/SRR805761.sra</t>
-  </si>
-  <si>
-    <t>ftp://ftp-trace.ncbi.nlm.nih.gov/sra/sra-instant/reads/ByExp/sra/SRX/SRX259/SRX259472/SRR805762/SRR805762.sra</t>
-  </si>
-  <si>
-    <t>ftp://ftp-trace.ncbi.nlm.nih.gov/sra/sra-instant/reads/ByExp/sra/SRX/SRX259/SRX259473/SRR805763/SRR805763.sra</t>
-  </si>
-  <si>
-    <t>ftp://ftp-trace.ncbi.nlm.nih.gov/sra/sra-instant/reads/ByExp/sra/SRX/SRX259/SRX259474/SRR805764/SRR805764.sra</t>
-  </si>
-  <si>
-    <t>ftp://ftp-trace.ncbi.nlm.nih.gov/sra/sra-instant/reads/ByExp/sra/SRX/SRX259/SRX259475/SRR805765/SRR805765.sra</t>
-  </si>
-  <si>
-    <t>ftp://ftp-trace.ncbi.nlm.nih.gov/sra/sra-instant/reads/ByExp/sra/SRX/SRX259/SRX259476/SRR805766/SRR805766.sra</t>
-  </si>
-  <si>
-    <t>ftp://ftp-trace.ncbi.nlm.nih.gov/sra/sra-instant/reads/ByExp/sra/SRX/SRX259/SRX259477/SRR805767/SRR805767.sra</t>
-  </si>
-  <si>
-    <t>ftp://ftp-trace.ncbi.nlm.nih.gov/sra/sra-instant/reads/ByExp/sra/SRX/SRX259/SRX259478/SRR805768/SRR805768.sra</t>
-  </si>
-  <si>
-    <t>ftp://ftp-trace.ncbi.nlm.nih.gov/sra/sra-instant/reads/ByExp/sra/SRX/SRX259/SRX259479/SRR805769/SRR805769.sra</t>
-  </si>
-  <si>
-    <t>ftp://ftp-trace.ncbi.nlm.nih.gov/sra/sra-instant/reads/ByExp/sra/SRX/SRX259/SRX259480/SRR805770/SRR805770.sra</t>
-  </si>
-  <si>
-    <t>ftp://ftp-trace.ncbi.nlm.nih.gov/sra/sra-instant/reads/ByExp/sra/SRX/SRX259/SRX259481/SRR805771/SRR805771.sra</t>
-  </si>
-  <si>
-    <t>ftp://ftp-trace.ncbi.nlm.nih.gov/sra/sra-instant/reads/ByExp/sra/SRX/SRX259/SRX259482/SRR805772/SRR805772.sra</t>
-  </si>
-  <si>
-    <t>ftp://ftp-trace.ncbi.nlm.nih.gov/sra/sra-instant/reads/ByExp/sra/SRX/SRX259/SRX259483/SRR805773/SRR805773.sra</t>
-  </si>
-  <si>
-    <t>ftp://ftp-trace.ncbi.nlm.nih.gov/sra/sra-instant/reads/ByExp/sra/SRX/SRX259/SRX259484/SRR805774/SRR805774.sra</t>
-  </si>
-  <si>
-    <t>ftp://ftp-trace.ncbi.nlm.nih.gov/sra/sra-instant/reads/ByExp/sra/SRX/SRX259/SRX259485/SRR805775/SRR805775.sra</t>
-  </si>
-  <si>
-    <t>ftp://ftp-trace.ncbi.nlm.nih.gov/sra/sra-instant/reads/ByExp/sra/SRX/SRX259/SRX259486/SRR805776/SRR805776.sra</t>
-  </si>
-  <si>
-    <t>ftp://ftp-trace.ncbi.nlm.nih.gov/sra/sra-instant/reads/ByExp/sra/SRX/SRX259/SRX259487/SRR805777/SRR805777.sra</t>
-  </si>
-  <si>
-    <t>ftp://ftp-trace.ncbi.nlm.nih.gov/sra/sra-instant/reads/ByExp/sra/SRX/SRX259/SRX259488/SRR805778/SRR805778.sra</t>
-  </si>
-  <si>
-    <t>ftp://ftp-trace.ncbi.nlm.nih.gov/sra/sra-instant/reads/ByExp/sra/SRX/SRX259/SRX259489/SRR805779/SRR805779.sra</t>
-  </si>
-  <si>
-    <t>ftp://ftp-trace.ncbi.nlm.nih.gov/sra/sra-instant/reads/ByExp/sra/SRX/SRX259/SRX259490/SRR805780/SRR805780.sra</t>
-  </si>
-  <si>
-    <t>ftp://ftp-trace.ncbi.nlm.nih.gov/sra/sra-instant/reads/ByExp/sra/SRX/SRX259/SRX259491/SRR805781/SRR805781.sra</t>
-  </si>
-  <si>
-    <t>ftp://ftp-trace.ncbi.nlm.nih.gov/sra/sra-instant/reads/ByExp/sra/SRX/SRX259/SRX259492/SRR805782/SRR805782.sra</t>
-  </si>
-  <si>
-    <t>ftp://ftp-trace.ncbi.nlm.nih.gov/sra/sra-instant/reads/ByExp/sra/SRX/SRX259/SRX259493/SRR805783/SRR805783.sra</t>
-  </si>
-  <si>
-    <t>ftp://ftp-trace.ncbi.nlm.nih.gov/sra/sra-instant/reads/ByExp/sra/SRX/SRX259/SRX259494/SRR805784/SRR805784.sra</t>
-  </si>
-  <si>
-    <t>ftp://ftp-trace.ncbi.nlm.nih.gov/sra/sra-instant/reads/ByExp/sra/SRX/SRX259/SRX259495/SRR805785/SRR805785.sra</t>
-  </si>
-  <si>
-    <t>ftp://ftp-trace.ncbi.nlm.nih.gov/sra/sra-instant/reads/ByExp/sra/SRX/SRX259/SRX259496/SRR805786/SRR805786.sra</t>
-  </si>
-  <si>
-    <t>ftp://ftp-trace.ncbi.nlm.nih.gov/sra/sra-instant/reads/ByExp/sra/SRX/SRX259/SRX259497/SRR805787/SRR805787.sra</t>
-  </si>
-  <si>
-    <t>ftp://ftp-trace.ncbi.nlm.nih.gov/sra/sra-instant/reads/ByExp/sra/SRX/SRX259/SRX259498/SRR805788/SRR805788.sra</t>
-  </si>
-  <si>
-    <t>ftp://ftp-trace.ncbi.nlm.nih.gov/sra/sra-instant/reads/ByExp/sra/SRX/SRX259/SRX259499/SRR805789/SRR805789.sra</t>
-  </si>
-  <si>
-    <t>ftp://ftp-trace.ncbi.nlm.nih.gov/sra/sra-instant/reads/ByExp/sra/SRX/SRX259/SRX259500/SRR805790/SRR805790.sra</t>
-  </si>
-  <si>
-    <t>ftp://ftp-trace.ncbi.nlm.nih.gov/sra/sra-instant/reads/ByExp/sra/SRX/SRX259/SRX259501/SRR805791/SRR805791.sra</t>
-  </si>
-  <si>
-    <t>ftp://ftp-trace.ncbi.nlm.nih.gov/sra/sra-instant/reads/ByExp/sra/SRX/SRX259/SRX259502/SRR805792/SRR805792.sra</t>
-  </si>
-  <si>
-    <t>ftp://ftp-trace.ncbi.nlm.nih.gov/sra/sra-instant/reads/ByExp/sra/SRX/SRX259/SRX259503/SRR805793/SRR805793.sra</t>
-  </si>
-  <si>
-    <t>ftp://ftp-trace.ncbi.nlm.nih.gov/sra/sra-instant/reads/ByExp/sra/SRX/SRX259/SRX259504/SRR805794/SRR805794.sra</t>
-  </si>
-  <si>
-    <t>ftp://ftp-trace.ncbi.nlm.nih.gov/sra/sra-instant/reads/ByExp/sra/SRX/SRX259/SRX259505/SRR805795/SRR805795.sra</t>
-  </si>
-  <si>
-    <t>ftp://ftp-trace.ncbi.nlm.nih.gov/sra/sra-instant/reads/ByExp/sra/SRX/SRX259/SRX259506/SRR805796/SRR805796.sra</t>
-  </si>
-  <si>
-    <t>ftp://ftp-trace.ncbi.nlm.nih.gov/sra/sra-instant/reads/ByExp/sra/SRX/SRX259/SRX259507/SRR805797/SRR805797.sra</t>
-  </si>
-  <si>
-    <t>ftp://ftp-trace.ncbi.nlm.nih.gov/sra/sra-instant/reads/ByExp/sra/SRX/SRX259/SRX259508/SRR805798/SRR805798.sra</t>
-  </si>
-  <si>
-    <t>ftp://ftp-trace.ncbi.nlm.nih.gov/sra/sra-instant/reads/ByExp/sra/SRX/SRX259/SRX259509/SRR805799/SRR805799.sra</t>
-  </si>
-  <si>
-    <t>ftp://ftp-trace.ncbi.nlm.nih.gov/sra/sra-instant/reads/ByExp/sra/SRX/SRX259/SRX259510/SRR805800/SRR805800.sra</t>
-  </si>
-  <si>
-    <t>ftp://ftp-trace.ncbi.nlm.nih.gov/sra/sra-instant/reads/ByExp/sra/SRX/SRX259/SRX259511/SRR805801/SRR805801.sra</t>
-  </si>
-  <si>
-    <t>ftp://ftp-trace.ncbi.nlm.nih.gov/sra/sra-instant/reads/ByExp/sra/SRX/SRX259/SRX259512/SRR805802/SRR805802.sra</t>
-  </si>
-  <si>
-    <t>ftp://ftp-trace.ncbi.nlm.nih.gov/sra/sra-instant/reads/ByExp/sra/SRX/SRX259/SRX259513/SRR805803/SRR805803.sra</t>
-  </si>
-  <si>
-    <t>ftp://ftp-trace.ncbi.nlm.nih.gov/sra/sra-instant/reads/ByExp/sra/SRX/SRX259/SRX259514/SRR805804/SRR805804.sra</t>
-  </si>
-  <si>
-    <t>ftp://ftp-trace.ncbi.nlm.nih.gov/sra/sra-instant/reads/ByExp/sra/SRX/SRX259/SRX259515/SRR805805/SRR805805.sra</t>
-  </si>
-  <si>
-    <t>ftp://ftp-trace.ncbi.nlm.nih.gov/sra/sra-instant/reads/ByExp/sra/SRX/SRX259/SRX259516/SRR805806/SRR805806.sra</t>
-  </si>
-  <si>
-    <t>ftp://ftp-trace.ncbi.nlm.nih.gov/sra/sra-instant/reads/ByExp/sra/SRX/SRX259/SRX259517/SRR805807/SRR805807.sra</t>
-  </si>
-  <si>
-    <t>ftp://ftp-trace.ncbi.nlm.nih.gov/sra/sra-instant/reads/ByExp/sra/SRX/SRX259/SRX259518/SRR805808/SRR805808.sra</t>
-  </si>
-  <si>
-    <t>ftp://ftp-trace.ncbi.nlm.nih.gov/sra/sra-instant/reads/ByExp/sra/SRX/SRX259/SRX259519/SRR805809/SRR805809.sra</t>
-  </si>
-  <si>
-    <t>ftp://ftp-trace.ncbi.nlm.nih.gov/sra/sra-instant/reads/ByExp/sra/SRX/SRX259/SRX259520/SRR805810/SRR805810.sra</t>
-  </si>
-  <si>
-    <t>ftp://ftp-trace.ncbi.nlm.nih.gov/sra/sra-instant/reads/ByExp/sra/SRX/SRX259/SRX259521/SRR805811/SRR805811.sra</t>
-  </si>
-  <si>
-    <t>ftp://ftp-trace.ncbi.nlm.nih.gov/sra/sra-instant/reads/ByExp/sra/SRX/SRX259/SRX259522/SRR805812/SRR805812.sra</t>
-  </si>
-  <si>
-    <t>ftp://ftp-trace.ncbi.nlm.nih.gov/sra/sra-instant/reads/ByExp/sra/SRX/SRX259/SRX259523/SRR805813/SRR805813.sra</t>
-  </si>
-  <si>
-    <t>ftp://ftp-trace.ncbi.nlm.nih.gov/sra/sra-instant/reads/ByExp/sra/SRX/SRX259/SRX259524/SRR805814/SRR805814.sra</t>
-  </si>
-  <si>
-    <t>ftp://ftp-trace.ncbi.nlm.nih.gov/sra/sra-instant/reads/ByExp/sra/SRX/SRX259/SRX259525/SRR805815/SRR805815.sra</t>
-  </si>
-  <si>
-    <t>ftp://ftp-trace.ncbi.nlm.nih.gov/sra/sra-instant/reads/ByExp/sra/SRX/SRX259/SRX259526/SRR805816/SRR805816.sra</t>
-  </si>
-  <si>
-    <t>ftp://ftp-trace.ncbi.nlm.nih.gov/sra/sra-instant/reads/ByExp/sra/SRX/SRX259/SRX259527/SRR805817/SRR805817.sra</t>
-  </si>
-  <si>
-    <t>ftp://ftp-trace.ncbi.nlm.nih.gov/sra/sra-instant/reads/ByExp/sra/SRX/SRX259/SRX259528/SRR805818/SRR805818.sra</t>
-  </si>
-  <si>
-    <t>ftp://ftp-trace.ncbi.nlm.nih.gov/sra/sra-instant/reads/ByExp/sra/SRX/SRX259/SRX259529/SRR805819/SRR805819.sra</t>
-  </si>
-  <si>
-    <t>ftp://ftp-trace.ncbi.nlm.nih.gov/sra/sra-instant/reads/ByExp/sra/SRX/SRX259/SRX259530/SRR805820/SRR805820.sra</t>
-  </si>
-  <si>
-    <t>ftp://ftp-trace.ncbi.nlm.nih.gov/sra/sra-instant/reads/ByExp/sra/SRX/SRX259/SRX259531/SRR805821/SRR805821.sra</t>
-  </si>
-  <si>
-    <t>ftp://ftp-trace.ncbi.nlm.nih.gov/sra/sra-instant/reads/ByExp/sra/SRX/SRX259/SRX259532/SRR805822/SRR805822.sra</t>
-  </si>
-  <si>
-    <t>ftp://ftp-trace.ncbi.nlm.nih.gov/sra/sra-instant/reads/ByExp/sra/SRX/SRX259/SRX259533/SRR805823/SRR805823.sra</t>
-  </si>
-  <si>
-    <t>ftp://ftp-trace.ncbi.nlm.nih.gov/sra/sra-instant/reads/ByExp/sra/SRX/SRX259/SRX259534/SRR805824/SRR805824.sra</t>
-  </si>
-  <si>
-    <t>ftp://ftp-trace.ncbi.nlm.nih.gov/sra/sra-instant/reads/ByExp/sra/SRX/SRX259/SRX259535/SRR805825/SRR805825.sra</t>
-  </si>
-  <si>
-    <t>ftp://ftp-trace.ncbi.nlm.nih.gov/sra/sra-instant/reads/ByExp/sra/SRX/SRX259/SRX259536/SRR805826/SRR805826.sra</t>
-  </si>
-  <si>
-    <t>ftp://ftp-trace.ncbi.nlm.nih.gov/sra/sra-instant/reads/ByExp/sra/SRX/SRX259/SRX259537/SRR805827/SRR805827.sra</t>
-  </si>
-  <si>
-    <t>ftp://ftp-trace.ncbi.nlm.nih.gov/sra/sra-instant/reads/ByExp/sra/SRX/SRX259/SRX259538/SRR805828/SRR805828.sra</t>
-  </si>
-  <si>
-    <t>ftp://ftp-trace.ncbi.nlm.nih.gov/sra/sra-instant/reads/ByExp/sra/SRX/SRX259/SRX259539/SRR805829/SRR805829.sra</t>
-  </si>
-  <si>
-    <t>ftp://ftp-trace.ncbi.nlm.nih.gov/sra/sra-instant/reads/ByExp/sra/SRX/SRX259/SRX259540/SRR805830/SRR805830.sra</t>
-  </si>
-  <si>
-    <t>ftp://ftp-trace.ncbi.nlm.nih.gov/sra/sra-instant/reads/ByExp/sra/SRX/SRX259/SRX259541/SRR805831/SRR805831.sra</t>
-  </si>
-  <si>
-    <t>ftp://ftp-trace.ncbi.nlm.nih.gov/sra/sra-instant/reads/ByExp/sra/SRX/SRX259/SRX259542/SRR805832/SRR805832.sra</t>
-  </si>
-  <si>
-    <t>ftp://ftp-trace.ncbi.nlm.nih.gov/sra/sra-instant/reads/ByExp/sra/SRX/SRX259/SRX259543/SRR805833/SRR805833.sra</t>
-  </si>
-  <si>
-    <t>ftp://ftp-trace.ncbi.nlm.nih.gov/sra/sra-instant/reads/ByExp/sra/SRX/SRX259/SRX259544/SRR805834/SRR805834.sra</t>
   </si>
   <si>
     <t>/usr/bin/fastq-dump</t>
@@ -1242,9 +909,6 @@
   </si>
   <si>
     <t>Ensembl gene types to omit from the analysis.  These gene types are included in fragment counting, but are left out of expression analysis. separated by a semicolon.</t>
-  </si>
-  <si>
-    <t>Output location to where the analysis files and report will be written (directory must exist).</t>
   </si>
   <si>
     <r>
@@ -1358,9 +1022,6 @@
     <t>T13_d08_pmc;T12_d04_pmc</t>
   </si>
   <si>
-    <t>Output location to where pre-processing results will be written (directory must exist).</t>
-  </si>
-  <si>
     <t>The number of threads to be used for pre-processing.</t>
   </si>
   <si>
@@ -1419,11 +1080,6 @@
   </si>
   <si>
     <t>Text that summarizes experimental design (Method section).</t>
-  </si>
-  <si>
-    <t>RNA was extracted with the Qiagen RNeasy micro kit. Concentrations were determined by UV spectrophotometry (Nanodrop) and integrity of ribosomal RNA was confirmed with the Agilent Bioanalyzer. Barcoded sequencing libraries
-were prepared with Illumina TruSeq RNA kits as recommended by Illumina, using 100 ng total RNA as input. All samples from an individual subject were sequenced in the same run using an Illumina Genome Analyzer IIx (22 samples per 8 lanes). CASAVA programs (Illumina, version 1.7) were used to demultiplex samples
-according to barcode.</t>
   </si>
   <si>
     <r>
@@ -1565,6 +1221,348 @@
   </si>
   <si>
     <t>AU (Approximately Unbiased) pvclust p-value for identifying co-expressed gene clusters (https://cran.r-project.org/web/packages/pvclust)</t>
+  </si>
+  <si>
+    <t>SRR805725</t>
+  </si>
+  <si>
+    <t>SRR805726</t>
+  </si>
+  <si>
+    <t>SRR805727</t>
+  </si>
+  <si>
+    <t>SRR805732</t>
+  </si>
+  <si>
+    <t>SRR805731</t>
+  </si>
+  <si>
+    <t>SRR805730</t>
+  </si>
+  <si>
+    <t>SRR805729</t>
+  </si>
+  <si>
+    <t>SRR805728</t>
+  </si>
+  <si>
+    <t>SRR805733</t>
+  </si>
+  <si>
+    <t>SRR805734</t>
+  </si>
+  <si>
+    <t>SRR805735</t>
+  </si>
+  <si>
+    <t>SRR805736</t>
+  </si>
+  <si>
+    <t>SRR805737</t>
+  </si>
+  <si>
+    <t>SRR805738</t>
+  </si>
+  <si>
+    <t>SRR805834</t>
+  </si>
+  <si>
+    <t>SRR805833</t>
+  </si>
+  <si>
+    <t>SRR805832</t>
+  </si>
+  <si>
+    <t>SRR805831</t>
+  </si>
+  <si>
+    <t>SRR805830</t>
+  </si>
+  <si>
+    <t>SRR805829</t>
+  </si>
+  <si>
+    <t>SRR805828</t>
+  </si>
+  <si>
+    <t>SRR805827</t>
+  </si>
+  <si>
+    <t>SRR805826</t>
+  </si>
+  <si>
+    <t>SRR805825</t>
+  </si>
+  <si>
+    <t>SRR805824</t>
+  </si>
+  <si>
+    <t>SRR805823</t>
+  </si>
+  <si>
+    <t>SRR805822</t>
+  </si>
+  <si>
+    <t>SRR805821</t>
+  </si>
+  <si>
+    <t>SRR805820</t>
+  </si>
+  <si>
+    <t>SRR805819</t>
+  </si>
+  <si>
+    <t>SRR805818</t>
+  </si>
+  <si>
+    <t>SRR805817</t>
+  </si>
+  <si>
+    <t>SRR805816</t>
+  </si>
+  <si>
+    <t>SRR805815</t>
+  </si>
+  <si>
+    <t>SRR805814</t>
+  </si>
+  <si>
+    <t>SRR805813</t>
+  </si>
+  <si>
+    <t>SRR805812</t>
+  </si>
+  <si>
+    <t>SRR805811</t>
+  </si>
+  <si>
+    <t>SRR805810</t>
+  </si>
+  <si>
+    <t>SRR805809</t>
+  </si>
+  <si>
+    <t>SRR805808</t>
+  </si>
+  <si>
+    <t>SRR805807</t>
+  </si>
+  <si>
+    <t>SRR805806</t>
+  </si>
+  <si>
+    <t>SRR805805</t>
+  </si>
+  <si>
+    <t>SRR805804</t>
+  </si>
+  <si>
+    <t>SRR805803</t>
+  </si>
+  <si>
+    <t>SRR805802</t>
+  </si>
+  <si>
+    <t>SRR805801</t>
+  </si>
+  <si>
+    <t>SRR805800</t>
+  </si>
+  <si>
+    <t>SRR805799</t>
+  </si>
+  <si>
+    <t>SRR805798</t>
+  </si>
+  <si>
+    <t>SRR805797</t>
+  </si>
+  <si>
+    <t>SRR805796</t>
+  </si>
+  <si>
+    <t>SRR805795</t>
+  </si>
+  <si>
+    <t>SRR805794</t>
+  </si>
+  <si>
+    <t>SRR805793</t>
+  </si>
+  <si>
+    <t>SRR805792</t>
+  </si>
+  <si>
+    <t>SRR805791</t>
+  </si>
+  <si>
+    <t>SRR805790</t>
+  </si>
+  <si>
+    <t>SRR805789</t>
+  </si>
+  <si>
+    <t>SRR805788</t>
+  </si>
+  <si>
+    <t>SRR805787</t>
+  </si>
+  <si>
+    <t>SRR805786</t>
+  </si>
+  <si>
+    <t>SRR805785</t>
+  </si>
+  <si>
+    <t>SRR805784</t>
+  </si>
+  <si>
+    <t>SRR805783</t>
+  </si>
+  <si>
+    <t>SRR805782</t>
+  </si>
+  <si>
+    <t>SRR805781</t>
+  </si>
+  <si>
+    <t>SRR805780</t>
+  </si>
+  <si>
+    <t>SRR805779</t>
+  </si>
+  <si>
+    <t>SRR805778</t>
+  </si>
+  <si>
+    <t>SRR805777</t>
+  </si>
+  <si>
+    <t>SRR805776</t>
+  </si>
+  <si>
+    <t>SRR805775</t>
+  </si>
+  <si>
+    <t>SRR805774</t>
+  </si>
+  <si>
+    <t>SRR805773</t>
+  </si>
+  <si>
+    <t>SRR805772</t>
+  </si>
+  <si>
+    <t>SRR805771</t>
+  </si>
+  <si>
+    <t>SRR805770</t>
+  </si>
+  <si>
+    <t>SRR805769</t>
+  </si>
+  <si>
+    <t>SRR805768</t>
+  </si>
+  <si>
+    <t>SRR805767</t>
+  </si>
+  <si>
+    <t>SRR805739</t>
+  </si>
+  <si>
+    <t>SRR805766</t>
+  </si>
+  <si>
+    <t>SRR805765</t>
+  </si>
+  <si>
+    <t>SRR805764</t>
+  </si>
+  <si>
+    <t>SRR805763</t>
+  </si>
+  <si>
+    <t>SRR805762</t>
+  </si>
+  <si>
+    <t>SRR805761</t>
+  </si>
+  <si>
+    <t>SRR805760</t>
+  </si>
+  <si>
+    <t>SRR805759</t>
+  </si>
+  <si>
+    <t>SRR805758</t>
+  </si>
+  <si>
+    <t>SRR805757</t>
+  </si>
+  <si>
+    <t>SRR805756</t>
+  </si>
+  <si>
+    <t>SRR805755</t>
+  </si>
+  <si>
+    <t>SRR805754</t>
+  </si>
+  <si>
+    <t>SRR805753</t>
+  </si>
+  <si>
+    <t>SRR805752</t>
+  </si>
+  <si>
+    <t>SRR805751</t>
+  </si>
+  <si>
+    <t>SRR805750</t>
+  </si>
+  <si>
+    <t>SRR805749</t>
+  </si>
+  <si>
+    <t>SRR805748</t>
+  </si>
+  <si>
+    <t>SRR805747</t>
+  </si>
+  <si>
+    <t>SRR805746</t>
+  </si>
+  <si>
+    <t>SRR805745</t>
+  </si>
+  <si>
+    <t>SRR805744</t>
+  </si>
+  <si>
+    <t>SRR805743</t>
+  </si>
+  <si>
+    <t>SRR805742</t>
+  </si>
+  <si>
+    <t>SRR805741</t>
+  </si>
+  <si>
+    <t>SRR805740</t>
+  </si>
+  <si>
+    <t>fastq_file_1</t>
+  </si>
+  <si>
+    <t>RNA was extracted with the Qiagen RNeasy micro kit. Concentrations were determined by UV spectrophotometry (Nanodrop) and integrity of ribosomal RNA was confirmed with the Agilent Bioanalyzer. Barcoded sequencing libraries were prepared with Illumina TruSeq RNA kits as recommended by Illumina, using 100 ng total RNA as input. All samples from an individual subject were sequenced in the same run using an Illumina Genome Analyzer IIx (22 samples per 8 lanes). CASAVA programs (Illumina, version 1.7) were used to demultiplex samples according to barcode.</t>
+  </si>
+  <si>
+    <t>Output location to where pre-processing results will be written.</t>
+  </si>
+  <si>
+    <t>Output location to where the analysis files and report will be written.</t>
   </si>
 </sst>
 </file>
@@ -1603,18 +1601,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -1650,7 +1642,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1666,17 +1658,14 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1688,7 +1677,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2043,9 +2032,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O114"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2067,91 +2054,91 @@
   <sheetData>
     <row r="1" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C1" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="D1" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="E1" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="E1" s="7" t="s">
-        <v>180</v>
-      </c>
       <c r="F1" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G1" s="7" t="s">
-        <v>342</v>
+        <v>231</v>
       </c>
       <c r="H1" s="7" t="s">
-        <v>343</v>
+        <v>232</v>
       </c>
       <c r="I1" s="7" t="s">
-        <v>344</v>
+        <v>233</v>
       </c>
       <c r="J1" s="7" t="s">
-        <v>345</v>
+        <v>234</v>
       </c>
       <c r="K1" s="7" t="s">
-        <v>346</v>
+        <v>235</v>
       </c>
       <c r="L1" s="7" t="s">
-        <v>347</v>
+        <v>236</v>
       </c>
       <c r="M1" s="7" t="s">
+        <v>406</v>
+      </c>
+      <c r="N1" s="7" t="s">
         <v>21</v>
-      </c>
-      <c r="N1" s="7" t="s">
-        <v>22</v>
       </c>
       <c r="O1" s="3"/>
     </row>
     <row r="2" spans="1:15" s="6" customFormat="1" ht="70.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B2" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="C2" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>41</v>
-      </c>
       <c r="E2" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="G2" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="F2" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="G2" s="7" t="s">
+      <c r="H2" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="I2" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="J2" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="J2" s="7" t="s">
+      <c r="K2" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="K2" s="7" t="s">
+      <c r="L2" s="7" t="s">
         <v>186</v>
-      </c>
-      <c r="L2" s="7" t="s">
-        <v>187</v>
       </c>
       <c r="M2" s="7" t="s">
         <v>19</v>
       </c>
       <c r="N2" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O2" s="3"/>
     </row>
@@ -2169,10 +2156,10 @@
         <v>0</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G3" s="7" t="s">
         <v>3</v>
@@ -2181,7 +2168,7 @@
         <v>0</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="J3" s="7" t="s">
         <v>3</v>
@@ -2190,7 +2177,7 @@
         <v>0</v>
       </c>
       <c r="L3" s="7" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="M3" s="7" t="s">
         <v>2</v>
@@ -2202,22 +2189,22 @@
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C4" s="8">
         <v>0</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G4" s="8" t="s">
         <v>4</v>
@@ -2226,41 +2213,41 @@
         <v>5</v>
       </c>
       <c r="I4" s="8" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="J4" s="8" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K4" s="9" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="L4" s="8" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="M4" s="8" t="s">
-        <v>226</v>
+        <v>296</v>
       </c>
       <c r="N4" s="8"/>
       <c r="O4" s="2"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C5" s="8">
         <v>1</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G5" s="8" t="s">
         <v>4</v>
@@ -2269,41 +2256,41 @@
         <v>5</v>
       </c>
       <c r="I5" s="8" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="J5" s="8" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K5" s="9" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="L5" s="8" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="M5" s="8" t="s">
-        <v>227</v>
+        <v>297</v>
       </c>
       <c r="N5" s="8"/>
       <c r="O5" s="2"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C6" s="8">
         <v>2</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G6" s="8" t="s">
         <v>4</v>
@@ -2312,41 +2299,41 @@
         <v>5</v>
       </c>
       <c r="I6" s="8" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="J6" s="8" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K6" s="9" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="L6" s="8" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="M6" s="8" t="s">
-        <v>228</v>
+        <v>298</v>
       </c>
       <c r="N6" s="8"/>
       <c r="O6" s="2"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C7" s="8">
         <v>3</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G7" s="8" t="s">
         <v>4</v>
@@ -2355,41 +2342,41 @@
         <v>5</v>
       </c>
       <c r="I7" s="8" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="J7" s="8" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K7" s="9" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="L7" s="8" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="M7" s="8" t="s">
-        <v>229</v>
+        <v>303</v>
       </c>
       <c r="N7" s="8"/>
       <c r="O7" s="2"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C8" s="8">
         <v>4</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G8" s="8" t="s">
         <v>4</v>
@@ -2398,41 +2385,41 @@
         <v>5</v>
       </c>
       <c r="I8" s="8" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="J8" s="8" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K8" s="9" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="L8" s="8" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="M8" s="8" t="s">
-        <v>230</v>
+        <v>302</v>
       </c>
       <c r="N8" s="8"/>
       <c r="O8" s="2"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C9" s="8">
         <v>5</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G9" s="8" t="s">
         <v>4</v>
@@ -2441,41 +2428,41 @@
         <v>5</v>
       </c>
       <c r="I9" s="8" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="J9" s="8" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K9" s="9" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="L9" s="8" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="M9" s="8" t="s">
-        <v>231</v>
+        <v>301</v>
       </c>
       <c r="N9" s="8"/>
       <c r="O9" s="2"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C10" s="8">
         <v>6</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G10" s="8" t="s">
         <v>4</v>
@@ -2484,41 +2471,41 @@
         <v>5</v>
       </c>
       <c r="I10" s="8" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="J10" s="8" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K10" s="9" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="L10" s="8" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="M10" s="8" t="s">
-        <v>232</v>
+        <v>300</v>
       </c>
       <c r="N10" s="8"/>
       <c r="O10" s="2"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C11" s="8">
         <v>7</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G11" s="8" t="s">
         <v>4</v>
@@ -2527,41 +2514,41 @@
         <v>5</v>
       </c>
       <c r="I11" s="8" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="J11" s="8" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K11" s="9" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="L11" s="8" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="M11" s="8" t="s">
-        <v>233</v>
+        <v>299</v>
       </c>
       <c r="N11" s="8"/>
       <c r="O11" s="2"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C12" s="8">
         <v>8</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G12" s="8" t="s">
         <v>4</v>
@@ -2570,41 +2557,41 @@
         <v>5</v>
       </c>
       <c r="I12" s="8" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="J12" s="8" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K12" s="9" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="L12" s="8" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="M12" s="8" t="s">
-        <v>234</v>
+        <v>304</v>
       </c>
       <c r="N12" s="8"/>
       <c r="O12" s="2"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C13" s="8">
         <v>9</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G13" s="8" t="s">
         <v>4</v>
@@ -2613,41 +2600,41 @@
         <v>5</v>
       </c>
       <c r="I13" s="8" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="J13" s="8" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K13" s="9" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="L13" s="8" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="M13" s="8" t="s">
-        <v>235</v>
+        <v>305</v>
       </c>
       <c r="N13" s="8"/>
       <c r="O13" s="2"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C14" s="8">
         <v>10</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G14" s="8" t="s">
         <v>4</v>
@@ -2656,41 +2643,41 @@
         <v>5</v>
       </c>
       <c r="I14" s="8" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="J14" s="8" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K14" s="9" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="L14" s="8" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="M14" s="8" t="s">
-        <v>236</v>
+        <v>306</v>
       </c>
       <c r="N14" s="8"/>
       <c r="O14" s="2"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C15" s="8">
         <v>0</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G15" s="8" t="s">
         <v>4</v>
@@ -2699,41 +2686,41 @@
         <v>5</v>
       </c>
       <c r="I15" s="8" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="J15" s="8" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K15" s="9" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="L15" s="8" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="M15" s="8" t="s">
-        <v>237</v>
+        <v>307</v>
       </c>
       <c r="N15" s="8"/>
       <c r="O15" s="2"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C16" s="8">
         <v>1</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G16" s="8" t="s">
         <v>4</v>
@@ -2742,41 +2729,41 @@
         <v>5</v>
       </c>
       <c r="I16" s="8" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="J16" s="8" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K16" s="9" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="L16" s="8" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="M16" s="8" t="s">
-        <v>238</v>
+        <v>308</v>
       </c>
       <c r="N16" s="8"/>
       <c r="O16" s="2"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C17" s="8">
         <v>2</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G17" s="8" t="s">
         <v>4</v>
@@ -2785,41 +2772,41 @@
         <v>5</v>
       </c>
       <c r="I17" s="8" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="J17" s="8" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K17" s="9" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="L17" s="8" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="M17" s="8" t="s">
-        <v>239</v>
+        <v>309</v>
       </c>
       <c r="N17" s="8"/>
       <c r="O17" s="2"/>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C18" s="8">
         <v>3</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G18" s="8" t="s">
         <v>4</v>
@@ -2828,41 +2815,41 @@
         <v>5</v>
       </c>
       <c r="I18" s="8" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="J18" s="8" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K18" s="9" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="L18" s="8" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="M18" s="8" t="s">
-        <v>240</v>
+        <v>378</v>
       </c>
       <c r="N18" s="8"/>
       <c r="O18" s="2"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C19" s="8">
         <v>4</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G19" s="8" t="s">
         <v>4</v>
@@ -2871,41 +2858,41 @@
         <v>5</v>
       </c>
       <c r="I19" s="8" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="J19" s="8" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K19" s="9" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="L19" s="8" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="M19" s="8" t="s">
-        <v>241</v>
+        <v>405</v>
       </c>
       <c r="N19" s="8"/>
       <c r="O19" s="2"/>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C20" s="8">
         <v>5</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G20" s="8" t="s">
         <v>4</v>
@@ -2914,41 +2901,41 @@
         <v>5</v>
       </c>
       <c r="I20" s="8" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="J20" s="8" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K20" s="9" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="L20" s="8" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="M20" s="8" t="s">
-        <v>242</v>
+        <v>404</v>
       </c>
       <c r="N20" s="8"/>
       <c r="O20" s="2"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C21" s="8">
         <v>6</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G21" s="8" t="s">
         <v>4</v>
@@ -2957,41 +2944,41 @@
         <v>5</v>
       </c>
       <c r="I21" s="8" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="J21" s="8" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K21" s="9" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="L21" s="8" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="M21" s="8" t="s">
-        <v>243</v>
+        <v>403</v>
       </c>
       <c r="N21" s="8"/>
       <c r="O21" s="2"/>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C22" s="8">
         <v>7</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F22" s="8" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G22" s="8" t="s">
         <v>4</v>
@@ -3000,41 +2987,41 @@
         <v>5</v>
       </c>
       <c r="I22" s="8" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="J22" s="8" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K22" s="9" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="L22" s="8" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="M22" s="8" t="s">
-        <v>244</v>
+        <v>402</v>
       </c>
       <c r="N22" s="8"/>
       <c r="O22" s="2"/>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C23" s="8">
         <v>8</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G23" s="8" t="s">
         <v>4</v>
@@ -3043,41 +3030,41 @@
         <v>5</v>
       </c>
       <c r="I23" s="8" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="J23" s="8" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K23" s="9" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="L23" s="8" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="M23" s="8" t="s">
-        <v>245</v>
+        <v>401</v>
       </c>
       <c r="N23" s="8"/>
       <c r="O23" s="2"/>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C24" s="8">
         <v>9</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E24" s="8" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F24" s="8" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G24" s="8" t="s">
         <v>4</v>
@@ -3086,41 +3073,41 @@
         <v>5</v>
       </c>
       <c r="I24" s="8" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="J24" s="8" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K24" s="9" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="L24" s="8" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="M24" s="8" t="s">
-        <v>246</v>
+        <v>400</v>
       </c>
       <c r="N24" s="8"/>
       <c r="O24" s="2"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C25" s="8">
         <v>10</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E25" s="8" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F25" s="8" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G25" s="8" t="s">
         <v>4</v>
@@ -3129,41 +3116,41 @@
         <v>5</v>
       </c>
       <c r="I25" s="8" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="J25" s="8" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K25" s="9" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="L25" s="8" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="M25" s="8" t="s">
-        <v>247</v>
+        <v>399</v>
       </c>
       <c r="N25" s="8"/>
       <c r="O25" s="2"/>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C26" s="8">
         <v>0</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E26" s="8" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F26" s="8" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G26" s="8" t="s">
         <v>4</v>
@@ -3172,41 +3159,41 @@
         <v>5</v>
       </c>
       <c r="I26" s="8" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="J26" s="8" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K26" s="9" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="L26" s="8" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="M26" s="8" t="s">
-        <v>248</v>
+        <v>398</v>
       </c>
       <c r="N26" s="8"/>
       <c r="O26" s="2"/>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C27" s="8">
         <v>1</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E27" s="8" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F27" s="8" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G27" s="8" t="s">
         <v>4</v>
@@ -3215,41 +3202,41 @@
         <v>5</v>
       </c>
       <c r="I27" s="8" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="J27" s="8" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K27" s="9" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="L27" s="8" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="M27" s="8" t="s">
-        <v>249</v>
+        <v>397</v>
       </c>
       <c r="N27" s="8"/>
       <c r="O27" s="2"/>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C28" s="8">
         <v>2</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E28" s="8" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F28" s="8" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G28" s="8" t="s">
         <v>4</v>
@@ -3258,41 +3245,41 @@
         <v>5</v>
       </c>
       <c r="I28" s="8" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="J28" s="8" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K28" s="9" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="L28" s="8" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="M28" s="8" t="s">
-        <v>250</v>
+        <v>396</v>
       </c>
       <c r="N28" s="8"/>
       <c r="O28" s="2"/>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C29" s="8">
         <v>3</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E29" s="8" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F29" s="8" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G29" s="8" t="s">
         <v>4</v>
@@ -3301,41 +3288,41 @@
         <v>5</v>
       </c>
       <c r="I29" s="8" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="J29" s="8" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K29" s="9" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="L29" s="8" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="M29" s="8" t="s">
-        <v>251</v>
+        <v>395</v>
       </c>
       <c r="N29" s="8"/>
       <c r="O29" s="2"/>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C30" s="8">
         <v>4</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E30" s="8" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F30" s="8" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G30" s="8" t="s">
         <v>4</v>
@@ -3344,41 +3331,41 @@
         <v>5</v>
       </c>
       <c r="I30" s="8" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="J30" s="8" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K30" s="9" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="L30" s="8" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="M30" s="8" t="s">
-        <v>252</v>
+        <v>394</v>
       </c>
       <c r="N30" s="8"/>
       <c r="O30" s="2"/>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C31" s="8">
         <v>5</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E31" s="8" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F31" s="8" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G31" s="8" t="s">
         <v>4</v>
@@ -3387,41 +3374,41 @@
         <v>5</v>
       </c>
       <c r="I31" s="8" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="J31" s="8" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K31" s="9" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="L31" s="8" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="M31" s="8" t="s">
-        <v>253</v>
+        <v>393</v>
       </c>
       <c r="N31" s="8"/>
       <c r="O31" s="2"/>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C32" s="8">
         <v>6</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E32" s="8" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F32" s="8" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G32" s="8" t="s">
         <v>4</v>
@@ -3430,41 +3417,41 @@
         <v>5</v>
       </c>
       <c r="I32" s="8" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="J32" s="8" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K32" s="9" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="L32" s="8" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="M32" s="8" t="s">
-        <v>254</v>
+        <v>392</v>
       </c>
       <c r="N32" s="8"/>
       <c r="O32" s="2"/>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C33" s="8">
         <v>7</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E33" s="8" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F33" s="8" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G33" s="8" t="s">
         <v>4</v>
@@ -3473,41 +3460,41 @@
         <v>5</v>
       </c>
       <c r="I33" s="8" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="J33" s="8" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K33" s="9" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="L33" s="8" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="M33" s="8" t="s">
-        <v>255</v>
+        <v>391</v>
       </c>
       <c r="N33" s="8"/>
       <c r="O33" s="2"/>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C34" s="8">
         <v>8</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E34" s="8" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F34" s="8" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G34" s="8" t="s">
         <v>4</v>
@@ -3516,41 +3503,41 @@
         <v>5</v>
       </c>
       <c r="I34" s="8" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="J34" s="8" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K34" s="9" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="L34" s="8" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="M34" s="8" t="s">
-        <v>256</v>
+        <v>390</v>
       </c>
       <c r="N34" s="8"/>
       <c r="O34" s="2"/>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C35" s="8">
         <v>9</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E35" s="8" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F35" s="8" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G35" s="8" t="s">
         <v>4</v>
@@ -3559,41 +3546,41 @@
         <v>5</v>
       </c>
       <c r="I35" s="8" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="J35" s="8" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K35" s="9" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="L35" s="8" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="M35" s="8" t="s">
-        <v>257</v>
+        <v>389</v>
       </c>
       <c r="N35" s="8"/>
       <c r="O35" s="2"/>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C36" s="8">
         <v>10</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E36" s="8" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F36" s="8" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G36" s="8" t="s">
         <v>4</v>
@@ -3602,41 +3589,41 @@
         <v>5</v>
       </c>
       <c r="I36" s="8" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="J36" s="8" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K36" s="9" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="L36" s="8" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="M36" s="8" t="s">
-        <v>258</v>
+        <v>388</v>
       </c>
       <c r="N36" s="8"/>
       <c r="O36" s="2"/>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C37" s="8">
         <v>0</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E37" s="8" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F37" s="8" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G37" s="8" t="s">
         <v>4</v>
@@ -3645,41 +3632,41 @@
         <v>5</v>
       </c>
       <c r="I37" s="8" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="J37" s="8" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K37" s="9" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="L37" s="8" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="M37" s="8" t="s">
-        <v>259</v>
+        <v>387</v>
       </c>
       <c r="N37" s="8"/>
       <c r="O37" s="2"/>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C38" s="8">
         <v>1</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E38" s="8" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F38" s="8" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G38" s="8" t="s">
         <v>4</v>
@@ -3688,41 +3675,41 @@
         <v>5</v>
       </c>
       <c r="I38" s="8" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="J38" s="8" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K38" s="9" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="L38" s="8" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="M38" s="8" t="s">
-        <v>260</v>
+        <v>386</v>
       </c>
       <c r="N38" s="8"/>
       <c r="O38" s="2"/>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C39" s="8">
         <v>2</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E39" s="8" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F39" s="8" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G39" s="8" t="s">
         <v>4</v>
@@ -3731,41 +3718,41 @@
         <v>5</v>
       </c>
       <c r="I39" s="8" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="J39" s="8" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K39" s="9" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="L39" s="8" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="M39" s="8" t="s">
-        <v>261</v>
+        <v>385</v>
       </c>
       <c r="N39" s="8"/>
       <c r="O39" s="2"/>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C40" s="8">
         <v>3</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E40" s="8" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F40" s="8" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G40" s="8" t="s">
         <v>4</v>
@@ -3774,41 +3761,41 @@
         <v>5</v>
       </c>
       <c r="I40" s="8" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="J40" s="8" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K40" s="9" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="L40" s="8" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="M40" s="8" t="s">
-        <v>262</v>
+        <v>384</v>
       </c>
       <c r="N40" s="8"/>
       <c r="O40" s="2"/>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C41" s="8">
         <v>4</v>
       </c>
       <c r="D41" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E41" s="8" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F41" s="8" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G41" s="8" t="s">
         <v>4</v>
@@ -3817,41 +3804,41 @@
         <v>5</v>
       </c>
       <c r="I41" s="8" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="J41" s="8" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K41" s="9" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="L41" s="8" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="M41" s="8" t="s">
-        <v>263</v>
+        <v>383</v>
       </c>
       <c r="N41" s="8"/>
       <c r="O41" s="2"/>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C42" s="8">
         <v>5</v>
       </c>
       <c r="D42" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E42" s="8" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F42" s="8" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G42" s="8" t="s">
         <v>4</v>
@@ -3860,41 +3847,41 @@
         <v>5</v>
       </c>
       <c r="I42" s="8" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="J42" s="8" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K42" s="9" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="L42" s="8" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="M42" s="8" t="s">
-        <v>264</v>
+        <v>382</v>
       </c>
       <c r="N42" s="8"/>
       <c r="O42" s="2"/>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C43" s="8">
         <v>6</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E43" s="8" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F43" s="8" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G43" s="8" t="s">
         <v>4</v>
@@ -3903,41 +3890,41 @@
         <v>5</v>
       </c>
       <c r="I43" s="8" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="J43" s="8" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K43" s="9" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="L43" s="8" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="M43" s="8" t="s">
-        <v>265</v>
+        <v>381</v>
       </c>
       <c r="N43" s="8"/>
       <c r="O43" s="2"/>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C44" s="8">
         <v>7</v>
       </c>
       <c r="D44" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E44" s="8" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F44" s="8" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G44" s="8" t="s">
         <v>4</v>
@@ -3946,41 +3933,41 @@
         <v>5</v>
       </c>
       <c r="I44" s="8" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="J44" s="8" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K44" s="9" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="L44" s="8" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="M44" s="8" t="s">
-        <v>266</v>
+        <v>380</v>
       </c>
       <c r="N44" s="8"/>
       <c r="O44" s="2"/>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C45" s="8">
         <v>8</v>
       </c>
       <c r="D45" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E45" s="8" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F45" s="8" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G45" s="8" t="s">
         <v>4</v>
@@ -3989,41 +3976,41 @@
         <v>5</v>
       </c>
       <c r="I45" s="8" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="J45" s="8" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K45" s="9" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="L45" s="8" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="M45" s="8" t="s">
-        <v>267</v>
+        <v>379</v>
       </c>
       <c r="N45" s="8"/>
       <c r="O45" s="2"/>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C46" s="8">
         <v>9</v>
       </c>
       <c r="D46" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E46" s="8" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F46" s="8" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G46" s="8" t="s">
         <v>4</v>
@@ -4032,41 +4019,41 @@
         <v>5</v>
       </c>
       <c r="I46" s="8" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="J46" s="8" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K46" s="9" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="L46" s="8" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="M46" s="8" t="s">
-        <v>268</v>
+        <v>377</v>
       </c>
       <c r="N46" s="8"/>
       <c r="O46" s="2"/>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C47" s="8">
         <v>10</v>
       </c>
       <c r="D47" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E47" s="8" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F47" s="8" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G47" s="8" t="s">
         <v>4</v>
@@ -4075,41 +4062,41 @@
         <v>5</v>
       </c>
       <c r="I47" s="8" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="J47" s="8" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K47" s="9" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="L47" s="8" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="M47" s="8" t="s">
-        <v>269</v>
+        <v>376</v>
       </c>
       <c r="N47" s="8"/>
       <c r="O47" s="2"/>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C48" s="8">
         <v>0</v>
       </c>
       <c r="D48" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E48" s="8" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F48" s="8" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G48" s="8" t="s">
         <v>4</v>
@@ -4118,41 +4105,41 @@
         <v>5</v>
       </c>
       <c r="I48" s="8" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="J48" s="8" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K48" s="9" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="L48" s="8" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="M48" s="8" t="s">
-        <v>270</v>
+        <v>375</v>
       </c>
       <c r="N48" s="8"/>
       <c r="O48" s="2"/>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A49" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C49" s="8">
         <v>1</v>
       </c>
       <c r="D49" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E49" s="8" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F49" s="8" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G49" s="8" t="s">
         <v>4</v>
@@ -4161,41 +4148,41 @@
         <v>5</v>
       </c>
       <c r="I49" s="8" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="J49" s="8" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K49" s="9" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="L49" s="8" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="M49" s="8" t="s">
-        <v>271</v>
+        <v>374</v>
       </c>
       <c r="N49" s="8"/>
       <c r="O49" s="2"/>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A50" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B50" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C50" s="8">
         <v>2</v>
       </c>
       <c r="D50" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E50" s="8" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F50" s="8" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G50" s="8" t="s">
         <v>4</v>
@@ -4204,41 +4191,41 @@
         <v>5</v>
       </c>
       <c r="I50" s="8" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="J50" s="8" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K50" s="9" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="L50" s="8" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="M50" s="8" t="s">
-        <v>272</v>
+        <v>373</v>
       </c>
       <c r="N50" s="8"/>
       <c r="O50" s="2"/>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A51" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B51" s="8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C51" s="8">
         <v>3</v>
       </c>
       <c r="D51" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E51" s="8" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F51" s="8" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G51" s="8" t="s">
         <v>4</v>
@@ -4247,41 +4234,41 @@
         <v>5</v>
       </c>
       <c r="I51" s="8" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="J51" s="8" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K51" s="9" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="L51" s="8" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="M51" s="8" t="s">
-        <v>273</v>
+        <v>372</v>
       </c>
       <c r="N51" s="8"/>
       <c r="O51" s="2"/>
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A52" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B52" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C52" s="8">
         <v>4</v>
       </c>
       <c r="D52" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E52" s="8" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F52" s="8" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G52" s="8" t="s">
         <v>4</v>
@@ -4290,41 +4277,41 @@
         <v>5</v>
       </c>
       <c r="I52" s="8" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="J52" s="8" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K52" s="9" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="L52" s="8" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="M52" s="8" t="s">
-        <v>274</v>
+        <v>371</v>
       </c>
       <c r="N52" s="8"/>
       <c r="O52" s="2"/>
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A53" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B53" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C53" s="8">
         <v>5</v>
       </c>
       <c r="D53" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E53" s="8" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F53" s="8" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G53" s="8" t="s">
         <v>4</v>
@@ -4333,41 +4320,41 @@
         <v>5</v>
       </c>
       <c r="I53" s="8" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="J53" s="8" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K53" s="9" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="L53" s="8" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="M53" s="8" t="s">
-        <v>275</v>
+        <v>370</v>
       </c>
       <c r="N53" s="8"/>
       <c r="O53" s="2"/>
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A54" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B54" s="8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C54" s="8">
         <v>6</v>
       </c>
       <c r="D54" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E54" s="8" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F54" s="8" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G54" s="8" t="s">
         <v>4</v>
@@ -4376,41 +4363,41 @@
         <v>5</v>
       </c>
       <c r="I54" s="8" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="J54" s="8" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K54" s="9" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="L54" s="8" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="M54" s="8" t="s">
-        <v>276</v>
+        <v>369</v>
       </c>
       <c r="N54" s="8"/>
       <c r="O54" s="2"/>
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A55" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B55" s="8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C55" s="8">
         <v>7</v>
       </c>
       <c r="D55" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E55" s="8" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F55" s="8" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G55" s="8" t="s">
         <v>4</v>
@@ -4419,41 +4406,41 @@
         <v>5</v>
       </c>
       <c r="I55" s="8" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="J55" s="8" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K55" s="9" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="L55" s="8" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="M55" s="8" t="s">
-        <v>277</v>
+        <v>368</v>
       </c>
       <c r="N55" s="8"/>
       <c r="O55" s="2"/>
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A56" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B56" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C56" s="8">
         <v>8</v>
       </c>
       <c r="D56" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E56" s="8" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F56" s="8" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G56" s="8" t="s">
         <v>4</v>
@@ -4462,41 +4449,41 @@
         <v>5</v>
       </c>
       <c r="I56" s="8" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="J56" s="8" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K56" s="9" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="L56" s="8" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="M56" s="8" t="s">
-        <v>278</v>
+        <v>367</v>
       </c>
       <c r="N56" s="8"/>
       <c r="O56" s="2"/>
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A57" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B57" s="8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C57" s="8">
         <v>9</v>
       </c>
       <c r="D57" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E57" s="8" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F57" s="8" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G57" s="8" t="s">
         <v>4</v>
@@ -4505,41 +4492,41 @@
         <v>5</v>
       </c>
       <c r="I57" s="8" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="J57" s="8" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K57" s="9" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="L57" s="8" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="M57" s="8" t="s">
-        <v>279</v>
+        <v>366</v>
       </c>
       <c r="N57" s="8"/>
       <c r="O57" s="2"/>
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A58" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B58" s="8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C58" s="8">
         <v>10</v>
       </c>
       <c r="D58" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E58" s="8" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F58" s="8" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G58" s="8" t="s">
         <v>4</v>
@@ -4548,2384 +4535,2384 @@
         <v>5</v>
       </c>
       <c r="I58" s="8" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="J58" s="8" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K58" s="9" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="L58" s="8" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="M58" s="8" t="s">
-        <v>280</v>
+        <v>365</v>
       </c>
       <c r="N58" s="8"/>
       <c r="O58" s="2"/>
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A59" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B59" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C59" s="8">
         <v>0</v>
       </c>
       <c r="D59" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E59" s="8" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F59" s="8" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G59" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="H59" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="H59" s="8" t="s">
-        <v>59</v>
-      </c>
       <c r="I59" s="8" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="J59" s="8" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K59" s="9" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="L59" s="8" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="M59" s="8" t="s">
-        <v>281</v>
+        <v>364</v>
       </c>
       <c r="N59" s="8"/>
       <c r="O59" s="2"/>
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A60" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B60" s="8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C60" s="8">
         <v>1</v>
       </c>
       <c r="D60" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E60" s="8" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F60" s="8" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G60" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="H60" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="H60" s="8" t="s">
-        <v>59</v>
-      </c>
       <c r="I60" s="8" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="J60" s="8" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K60" s="9" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="L60" s="8" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="M60" s="8" t="s">
-        <v>282</v>
+        <v>363</v>
       </c>
       <c r="N60" s="8"/>
       <c r="O60" s="2"/>
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A61" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B61" s="8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C61" s="8">
         <v>2</v>
       </c>
       <c r="D61" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E61" s="8" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F61" s="8" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G61" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="H61" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="H61" s="8" t="s">
-        <v>59</v>
-      </c>
       <c r="I61" s="8" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="J61" s="8" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K61" s="9" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="L61" s="8" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="M61" s="8" t="s">
-        <v>283</v>
+        <v>362</v>
       </c>
       <c r="N61" s="8"/>
       <c r="O61" s="2"/>
     </row>
     <row r="62" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A62" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B62" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C62" s="8">
         <v>3</v>
       </c>
       <c r="D62" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E62" s="8" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F62" s="8" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G62" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="H62" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="H62" s="8" t="s">
-        <v>59</v>
-      </c>
       <c r="I62" s="8" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="J62" s="8" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K62" s="9" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="L62" s="8" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="M62" s="8" t="s">
-        <v>284</v>
+        <v>361</v>
       </c>
       <c r="N62" s="8"/>
       <c r="O62" s="2"/>
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A63" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B63" s="8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C63" s="8">
         <v>4</v>
       </c>
       <c r="D63" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E63" s="8" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F63" s="8" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G63" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="H63" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="H63" s="8" t="s">
-        <v>59</v>
-      </c>
       <c r="I63" s="8" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="J63" s="8" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K63" s="9" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="L63" s="8" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="M63" s="8" t="s">
-        <v>285</v>
+        <v>360</v>
       </c>
       <c r="N63" s="8"/>
       <c r="O63" s="2"/>
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A64" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B64" s="8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C64" s="8">
         <v>5</v>
       </c>
       <c r="D64" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E64" s="8" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F64" s="8" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G64" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="H64" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="H64" s="8" t="s">
-        <v>59</v>
-      </c>
       <c r="I64" s="8" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="J64" s="8" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K64" s="9" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="L64" s="8" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="M64" s="8" t="s">
-        <v>286</v>
+        <v>359</v>
       </c>
       <c r="N64" s="8"/>
       <c r="O64" s="2"/>
     </row>
     <row r="65" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A65" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B65" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C65" s="8">
         <v>6</v>
       </c>
       <c r="D65" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E65" s="8" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F65" s="8" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G65" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="H65" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="H65" s="8" t="s">
-        <v>59</v>
-      </c>
       <c r="I65" s="8" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="J65" s="8" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K65" s="9" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="L65" s="8" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="M65" s="8" t="s">
-        <v>287</v>
+        <v>358</v>
       </c>
       <c r="N65" s="8"/>
       <c r="O65" s="2"/>
     </row>
     <row r="66" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A66" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B66" s="8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C66" s="8">
         <v>7</v>
       </c>
       <c r="D66" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E66" s="8" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F66" s="8" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G66" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="H66" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="H66" s="8" t="s">
-        <v>59</v>
-      </c>
       <c r="I66" s="8" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="J66" s="8" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K66" s="9" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="L66" s="8" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="M66" s="8" t="s">
-        <v>288</v>
+        <v>357</v>
       </c>
       <c r="N66" s="8"/>
       <c r="O66" s="2"/>
     </row>
     <row r="67" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A67" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B67" s="8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C67" s="8">
         <v>8</v>
       </c>
       <c r="D67" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E67" s="8" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F67" s="8" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G67" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="H67" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="H67" s="8" t="s">
-        <v>59</v>
-      </c>
       <c r="I67" s="8" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="J67" s="8" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K67" s="9" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="L67" s="8" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="M67" s="8" t="s">
-        <v>289</v>
+        <v>356</v>
       </c>
       <c r="N67" s="8"/>
       <c r="O67" s="2"/>
     </row>
     <row r="68" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A68" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B68" s="8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C68" s="8">
         <v>9</v>
       </c>
       <c r="D68" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E68" s="8" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F68" s="8" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G68" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="H68" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="H68" s="8" t="s">
-        <v>59</v>
-      </c>
       <c r="I68" s="8" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="J68" s="8" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K68" s="9" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="L68" s="8" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="M68" s="8" t="s">
-        <v>290</v>
+        <v>355</v>
       </c>
       <c r="N68" s="8"/>
       <c r="O68" s="2"/>
     </row>
     <row r="69" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A69" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B69" s="8" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C69" s="8">
         <v>10</v>
       </c>
       <c r="D69" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="E69" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="F69" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="G69" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="E69" s="8" t="s">
-        <v>199</v>
-      </c>
-      <c r="F69" s="8" t="s">
-        <v>211</v>
-      </c>
-      <c r="G69" s="8" t="s">
+      <c r="H69" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="H69" s="8" t="s">
-        <v>59</v>
-      </c>
       <c r="I69" s="8" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="J69" s="8" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K69" s="9" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="L69" s="8" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="M69" s="8" t="s">
-        <v>291</v>
+        <v>354</v>
       </c>
       <c r="N69" s="8"/>
       <c r="O69" s="2"/>
     </row>
     <row r="70" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A70" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B70" s="8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C70" s="8">
         <v>0</v>
       </c>
       <c r="D70" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E70" s="8" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F70" s="8" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G70" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="H70" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="H70" s="8" t="s">
-        <v>59</v>
-      </c>
       <c r="I70" s="8" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="J70" s="8" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K70" s="9" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="L70" s="8" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="M70" s="8" t="s">
-        <v>292</v>
+        <v>353</v>
       </c>
       <c r="N70" s="8"/>
       <c r="O70" s="2"/>
     </row>
     <row r="71" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A71" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B71" s="8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C71" s="8">
         <v>1</v>
       </c>
       <c r="D71" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E71" s="8" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F71" s="8" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G71" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="H71" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="H71" s="8" t="s">
-        <v>59</v>
-      </c>
       <c r="I71" s="8" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="J71" s="8" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K71" s="9" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="L71" s="8" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="M71" s="8" t="s">
-        <v>293</v>
+        <v>352</v>
       </c>
       <c r="N71" s="8"/>
       <c r="O71" s="2"/>
     </row>
     <row r="72" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A72" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B72" s="8" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C72" s="8">
         <v>2</v>
       </c>
       <c r="D72" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E72" s="8" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F72" s="8" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G72" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="H72" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="H72" s="8" t="s">
-        <v>59</v>
-      </c>
       <c r="I72" s="8" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="J72" s="8" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K72" s="9" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="L72" s="8" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="M72" s="8" t="s">
-        <v>294</v>
+        <v>351</v>
       </c>
       <c r="N72" s="8"/>
       <c r="O72" s="2"/>
     </row>
     <row r="73" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A73" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B73" s="8" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C73" s="8">
         <v>3</v>
       </c>
       <c r="D73" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E73" s="8" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F73" s="8" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G73" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="H73" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="H73" s="8" t="s">
-        <v>59</v>
-      </c>
       <c r="I73" s="8" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="J73" s="8" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K73" s="9" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="L73" s="8" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="M73" s="8" t="s">
-        <v>295</v>
+        <v>350</v>
       </c>
       <c r="N73" s="8"/>
       <c r="O73" s="2"/>
     </row>
     <row r="74" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A74" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B74" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C74" s="8">
         <v>4</v>
       </c>
       <c r="D74" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E74" s="8" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F74" s="8" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G74" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="H74" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="H74" s="8" t="s">
-        <v>59</v>
-      </c>
       <c r="I74" s="8" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="J74" s="8" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K74" s="9" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="L74" s="8" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="M74" s="8" t="s">
-        <v>296</v>
+        <v>349</v>
       </c>
       <c r="N74" s="8"/>
       <c r="O74" s="2"/>
     </row>
     <row r="75" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A75" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B75" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C75" s="8">
         <v>5</v>
       </c>
       <c r="D75" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E75" s="8" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F75" s="8" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G75" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="H75" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="H75" s="8" t="s">
-        <v>59</v>
-      </c>
       <c r="I75" s="8" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="J75" s="8" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K75" s="9" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="L75" s="8" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="M75" s="8" t="s">
-        <v>297</v>
+        <v>348</v>
       </c>
       <c r="N75" s="8"/>
       <c r="O75" s="2"/>
     </row>
     <row r="76" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A76" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B76" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C76" s="8">
         <v>6</v>
       </c>
       <c r="D76" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E76" s="8" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F76" s="8" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G76" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="H76" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="H76" s="8" t="s">
-        <v>59</v>
-      </c>
       <c r="I76" s="8" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="J76" s="8" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K76" s="9" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="L76" s="8" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="M76" s="8" t="s">
-        <v>298</v>
+        <v>347</v>
       </c>
       <c r="N76" s="8"/>
       <c r="O76" s="2"/>
     </row>
     <row r="77" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A77" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B77" s="8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C77" s="8">
         <v>7</v>
       </c>
       <c r="D77" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E77" s="8" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F77" s="8" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G77" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="H77" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="H77" s="8" t="s">
-        <v>59</v>
-      </c>
       <c r="I77" s="8" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="J77" s="8" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K77" s="9" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="L77" s="8" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="M77" s="8" t="s">
-        <v>299</v>
+        <v>346</v>
       </c>
       <c r="N77" s="8"/>
       <c r="O77" s="2"/>
     </row>
     <row r="78" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A78" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B78" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C78" s="8">
         <v>8</v>
       </c>
       <c r="D78" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E78" s="8" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F78" s="8" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G78" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="H78" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="H78" s="8" t="s">
-        <v>59</v>
-      </c>
       <c r="I78" s="8" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="J78" s="8" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K78" s="9" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="L78" s="8" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="M78" s="8" t="s">
-        <v>300</v>
+        <v>345</v>
       </c>
       <c r="N78" s="8"/>
       <c r="O78" s="2"/>
     </row>
     <row r="79" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A79" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B79" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C79" s="8">
         <v>9</v>
       </c>
       <c r="D79" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E79" s="8" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F79" s="8" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G79" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="H79" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="H79" s="8" t="s">
-        <v>59</v>
-      </c>
       <c r="I79" s="8" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="J79" s="8" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K79" s="9" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="L79" s="8" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="M79" s="8" t="s">
-        <v>301</v>
+        <v>344</v>
       </c>
       <c r="N79" s="8"/>
       <c r="O79" s="2"/>
     </row>
     <row r="80" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A80" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B80" s="8" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C80" s="8">
         <v>10</v>
       </c>
       <c r="D80" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="E80" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="F80" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="G80" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="E80" s="8" t="s">
-        <v>199</v>
-      </c>
-      <c r="F80" s="8" t="s">
-        <v>211</v>
-      </c>
-      <c r="G80" s="8" t="s">
+      <c r="H80" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="H80" s="8" t="s">
-        <v>59</v>
-      </c>
       <c r="I80" s="8" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="J80" s="8" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K80" s="9" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="L80" s="8" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="M80" s="8" t="s">
-        <v>302</v>
+        <v>343</v>
       </c>
       <c r="N80" s="8"/>
       <c r="O80" s="2"/>
     </row>
     <row r="81" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A81" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B81" s="8" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C81" s="8">
         <v>0</v>
       </c>
       <c r="D81" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E81" s="8" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F81" s="8" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G81" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="H81" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="H81" s="8" t="s">
-        <v>59</v>
-      </c>
       <c r="I81" s="8" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="J81" s="8" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K81" s="9" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="L81" s="8" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="M81" s="8" t="s">
-        <v>303</v>
+        <v>342</v>
       </c>
       <c r="N81" s="8"/>
       <c r="O81" s="2"/>
     </row>
     <row r="82" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A82" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B82" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C82" s="8">
         <v>1</v>
       </c>
       <c r="D82" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E82" s="8" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F82" s="8" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G82" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="H82" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="H82" s="8" t="s">
-        <v>59</v>
-      </c>
       <c r="I82" s="8" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="J82" s="8" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K82" s="9" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="L82" s="8" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="M82" s="8" t="s">
-        <v>304</v>
+        <v>341</v>
       </c>
       <c r="N82" s="8"/>
       <c r="O82" s="2"/>
     </row>
     <row r="83" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A83" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B83" s="8" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C83" s="8">
         <v>2</v>
       </c>
       <c r="D83" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E83" s="8" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F83" s="8" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G83" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="H83" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="H83" s="8" t="s">
-        <v>59</v>
-      </c>
       <c r="I83" s="8" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="J83" s="8" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K83" s="9" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="L83" s="8" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="M83" s="8" t="s">
-        <v>305</v>
+        <v>340</v>
       </c>
       <c r="N83" s="8"/>
       <c r="O83" s="2"/>
     </row>
     <row r="84" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A84" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B84" s="8" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C84" s="8">
         <v>3</v>
       </c>
       <c r="D84" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E84" s="8" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F84" s="8" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G84" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="H84" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="H84" s="8" t="s">
-        <v>59</v>
-      </c>
       <c r="I84" s="8" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="J84" s="8" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K84" s="9" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="L84" s="8" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="M84" s="8" t="s">
-        <v>306</v>
+        <v>339</v>
       </c>
       <c r="N84" s="8"/>
       <c r="O84" s="2"/>
     </row>
     <row r="85" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A85" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B85" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C85" s="8">
         <v>4</v>
       </c>
       <c r="D85" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E85" s="8" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F85" s="8" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G85" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="H85" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="H85" s="8" t="s">
-        <v>59</v>
-      </c>
       <c r="I85" s="8" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="J85" s="8" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K85" s="9" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="L85" s="8" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="M85" s="8" t="s">
-        <v>307</v>
+        <v>338</v>
       </c>
       <c r="N85" s="8"/>
       <c r="O85" s="2"/>
     </row>
     <row r="86" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A86" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B86" s="8" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C86" s="8">
         <v>5</v>
       </c>
       <c r="D86" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E86" s="8" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F86" s="8" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G86" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="H86" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="H86" s="8" t="s">
-        <v>59</v>
-      </c>
       <c r="I86" s="8" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="J86" s="8" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K86" s="9" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="L86" s="8" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="M86" s="8" t="s">
-        <v>308</v>
+        <v>337</v>
       </c>
       <c r="N86" s="8"/>
       <c r="O86" s="2"/>
     </row>
     <row r="87" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A87" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B87" s="8" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C87" s="8">
         <v>6</v>
       </c>
       <c r="D87" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E87" s="8" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F87" s="8" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G87" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="H87" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="H87" s="8" t="s">
-        <v>59</v>
-      </c>
       <c r="I87" s="8" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="J87" s="8" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K87" s="9" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="L87" s="8" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="M87" s="8" t="s">
-        <v>309</v>
+        <v>336</v>
       </c>
       <c r="N87" s="8"/>
       <c r="O87" s="2"/>
     </row>
     <row r="88" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A88" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B88" s="8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C88" s="8">
         <v>7</v>
       </c>
       <c r="D88" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E88" s="8" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F88" s="8" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G88" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="H88" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="H88" s="8" t="s">
-        <v>59</v>
-      </c>
       <c r="I88" s="8" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="J88" s="8" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K88" s="9" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="L88" s="8" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="M88" s="8" t="s">
-        <v>310</v>
+        <v>335</v>
       </c>
       <c r="N88" s="8"/>
       <c r="O88" s="2"/>
     </row>
     <row r="89" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A89" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B89" s="8" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C89" s="8">
         <v>8</v>
       </c>
       <c r="D89" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E89" s="8" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F89" s="8" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G89" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="H89" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="H89" s="8" t="s">
-        <v>59</v>
-      </c>
       <c r="I89" s="8" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="J89" s="8" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K89" s="9" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="L89" s="8" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="M89" s="8" t="s">
-        <v>311</v>
+        <v>334</v>
       </c>
       <c r="N89" s="8"/>
       <c r="O89" s="2"/>
     </row>
     <row r="90" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A90" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B90" s="8" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C90" s="8">
         <v>9</v>
       </c>
       <c r="D90" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E90" s="8" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F90" s="8" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G90" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="H90" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="H90" s="8" t="s">
-        <v>59</v>
-      </c>
       <c r="I90" s="8" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="J90" s="8" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K90" s="9" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="L90" s="8" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="M90" s="8" t="s">
-        <v>312</v>
+        <v>333</v>
       </c>
       <c r="N90" s="8"/>
       <c r="O90" s="2"/>
     </row>
     <row r="91" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A91" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B91" s="8" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C91" s="8">
         <v>10</v>
       </c>
       <c r="D91" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="E91" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="F91" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="G91" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="E91" s="8" t="s">
-        <v>199</v>
-      </c>
-      <c r="F91" s="8" t="s">
-        <v>211</v>
-      </c>
-      <c r="G91" s="8" t="s">
+      <c r="H91" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="H91" s="8" t="s">
-        <v>59</v>
-      </c>
       <c r="I91" s="8" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="J91" s="8" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K91" s="9" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="L91" s="8" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="M91" s="8" t="s">
-        <v>313</v>
+        <v>332</v>
       </c>
       <c r="N91" s="8"/>
       <c r="O91" s="2"/>
     </row>
     <row r="92" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A92" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B92" s="8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C92" s="8">
         <v>0</v>
       </c>
       <c r="D92" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E92" s="8" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F92" s="8" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G92" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="H92" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="H92" s="8" t="s">
-        <v>59</v>
-      </c>
       <c r="I92" s="8" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="J92" s="8" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K92" s="9" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="L92" s="8" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="M92" s="8" t="s">
-        <v>314</v>
+        <v>331</v>
       </c>
       <c r="N92" s="8"/>
       <c r="O92" s="2"/>
     </row>
     <row r="93" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A93" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B93" s="8" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C93" s="8">
         <v>1</v>
       </c>
       <c r="D93" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E93" s="8" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F93" s="8" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G93" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="H93" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="H93" s="8" t="s">
-        <v>59</v>
-      </c>
       <c r="I93" s="8" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="J93" s="8" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K93" s="9" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="L93" s="8" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="M93" s="8" t="s">
-        <v>315</v>
+        <v>330</v>
       </c>
       <c r="N93" s="8"/>
       <c r="O93" s="2"/>
     </row>
     <row r="94" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A94" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B94" s="8" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C94" s="8">
         <v>2</v>
       </c>
       <c r="D94" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E94" s="8" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F94" s="8" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G94" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="H94" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="H94" s="8" t="s">
-        <v>59</v>
-      </c>
       <c r="I94" s="8" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="J94" s="8" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K94" s="9" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="L94" s="8" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="M94" s="8" t="s">
-        <v>316</v>
+        <v>329</v>
       </c>
       <c r="N94" s="8"/>
       <c r="O94" s="2"/>
     </row>
     <row r="95" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A95" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B95" s="8" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C95" s="8">
         <v>3</v>
       </c>
       <c r="D95" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E95" s="8" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F95" s="8" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G95" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="H95" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="H95" s="8" t="s">
-        <v>59</v>
-      </c>
       <c r="I95" s="8" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="J95" s="8" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K95" s="9" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="L95" s="8" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="M95" s="8" t="s">
-        <v>317</v>
+        <v>328</v>
       </c>
       <c r="N95" s="8"/>
       <c r="O95" s="2"/>
     </row>
     <row r="96" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A96" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B96" s="8" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C96" s="8">
         <v>4</v>
       </c>
       <c r="D96" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E96" s="8" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F96" s="8" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G96" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="H96" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="H96" s="8" t="s">
-        <v>59</v>
-      </c>
       <c r="I96" s="8" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="J96" s="8" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K96" s="9" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="L96" s="8" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="M96" s="8" t="s">
-        <v>318</v>
+        <v>327</v>
       </c>
       <c r="N96" s="8"/>
       <c r="O96" s="2"/>
     </row>
     <row r="97" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A97" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B97" s="8" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C97" s="8">
         <v>5</v>
       </c>
       <c r="D97" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E97" s="8" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F97" s="8" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G97" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="H97" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="H97" s="8" t="s">
-        <v>59</v>
-      </c>
       <c r="I97" s="8" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="J97" s="8" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K97" s="9" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="L97" s="8" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="M97" s="8" t="s">
-        <v>319</v>
+        <v>326</v>
       </c>
       <c r="N97" s="8"/>
       <c r="O97" s="2"/>
     </row>
     <row r="98" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A98" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B98" s="8" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C98" s="8">
         <v>6</v>
       </c>
       <c r="D98" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E98" s="8" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F98" s="8" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G98" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="H98" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="H98" s="8" t="s">
-        <v>59</v>
-      </c>
       <c r="I98" s="8" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="J98" s="8" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K98" s="9" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="L98" s="8" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="M98" s="8" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="N98" s="8"/>
       <c r="O98" s="2"/>
     </row>
     <row r="99" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A99" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B99" s="8" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C99" s="8">
         <v>7</v>
       </c>
       <c r="D99" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E99" s="8" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F99" s="8" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G99" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="H99" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="H99" s="8" t="s">
-        <v>59</v>
-      </c>
       <c r="I99" s="8" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="J99" s="8" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K99" s="9" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="L99" s="8" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="M99" s="8" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="N99" s="8"/>
       <c r="O99" s="2"/>
     </row>
     <row r="100" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A100" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B100" s="8" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C100" s="8">
         <v>8</v>
       </c>
       <c r="D100" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E100" s="8" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F100" s="8" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G100" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="H100" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="H100" s="8" t="s">
-        <v>59</v>
-      </c>
       <c r="I100" s="8" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="J100" s="8" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K100" s="9" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="L100" s="8" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="M100" s="8" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="N100" s="8"/>
       <c r="O100" s="2"/>
     </row>
     <row r="101" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A101" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B101" s="8" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C101" s="8">
         <v>9</v>
       </c>
       <c r="D101" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E101" s="8" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F101" s="8" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G101" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="H101" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="H101" s="8" t="s">
-        <v>59</v>
-      </c>
       <c r="I101" s="8" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="J101" s="8" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K101" s="9" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="L101" s="8" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="M101" s="8" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="N101" s="8"/>
       <c r="O101" s="2"/>
     </row>
     <row r="102" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A102" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B102" s="8" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C102" s="8">
         <v>10</v>
       </c>
       <c r="D102" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="E102" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="F102" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="G102" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="E102" s="8" t="s">
-        <v>199</v>
-      </c>
-      <c r="F102" s="8" t="s">
-        <v>211</v>
-      </c>
-      <c r="G102" s="8" t="s">
+      <c r="H102" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="H102" s="8" t="s">
-        <v>59</v>
-      </c>
       <c r="I102" s="8" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="J102" s="8" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K102" s="9" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="L102" s="8" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="M102" s="8" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="N102" s="8"/>
       <c r="O102" s="2"/>
     </row>
     <row r="103" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A103" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B103" s="8" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C103" s="8">
         <v>0</v>
       </c>
       <c r="D103" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E103" s="8" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F103" s="8" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G103" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="H103" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="H103" s="8" t="s">
-        <v>59</v>
-      </c>
       <c r="I103" s="8" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="J103" s="8" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K103" s="9" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="L103" s="8" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="M103" s="8" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="N103" s="8"/>
       <c r="O103" s="2"/>
     </row>
     <row r="104" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A104" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B104" s="8" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C104" s="8">
         <v>1</v>
       </c>
       <c r="D104" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E104" s="8" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F104" s="8" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G104" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="H104" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="H104" s="8" t="s">
-        <v>59</v>
-      </c>
       <c r="I104" s="8" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="J104" s="8" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K104" s="9" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="L104" s="8" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="M104" s="8" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="N104" s="8"/>
       <c r="O104" s="2"/>
     </row>
     <row r="105" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A105" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B105" s="8" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C105" s="8">
         <v>2</v>
       </c>
       <c r="D105" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E105" s="8" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F105" s="8" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G105" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="H105" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="H105" s="8" t="s">
-        <v>59</v>
-      </c>
       <c r="I105" s="8" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="J105" s="8" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K105" s="9" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="L105" s="8" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="M105" s="8" t="s">
-        <v>327</v>
+        <v>318</v>
       </c>
       <c r="N105" s="8"/>
       <c r="O105" s="2"/>
     </row>
     <row r="106" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A106" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B106" s="8" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C106" s="8">
         <v>3</v>
       </c>
       <c r="D106" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E106" s="8" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F106" s="8" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G106" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="H106" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="H106" s="8" t="s">
-        <v>59</v>
-      </c>
       <c r="I106" s="8" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="J106" s="8" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K106" s="9" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="L106" s="8" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="M106" s="8" t="s">
-        <v>328</v>
+        <v>317</v>
       </c>
       <c r="N106" s="8"/>
       <c r="O106" s="2"/>
     </row>
     <row r="107" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A107" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B107" s="8" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C107" s="8">
         <v>4</v>
       </c>
       <c r="D107" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E107" s="8" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F107" s="8" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G107" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="H107" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="H107" s="8" t="s">
-        <v>59</v>
-      </c>
       <c r="I107" s="8" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="J107" s="8" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K107" s="9" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="L107" s="8" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="M107" s="8" t="s">
-        <v>329</v>
+        <v>316</v>
       </c>
       <c r="N107" s="8"/>
       <c r="O107" s="2"/>
     </row>
     <row r="108" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A108" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B108" s="8" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C108" s="8">
         <v>5</v>
       </c>
       <c r="D108" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E108" s="8" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F108" s="8" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G108" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="H108" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="H108" s="8" t="s">
-        <v>59</v>
-      </c>
       <c r="I108" s="8" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="J108" s="8" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K108" s="9" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="L108" s="8" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="M108" s="8" t="s">
-        <v>330</v>
+        <v>315</v>
       </c>
       <c r="N108" s="8"/>
       <c r="O108" s="2"/>
     </row>
     <row r="109" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A109" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B109" s="8" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C109" s="8">
         <v>6</v>
       </c>
       <c r="D109" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E109" s="8" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F109" s="8" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G109" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="H109" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="H109" s="8" t="s">
-        <v>59</v>
-      </c>
       <c r="I109" s="8" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="J109" s="8" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K109" s="9" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="L109" s="8" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="M109" s="8" t="s">
-        <v>331</v>
+        <v>314</v>
       </c>
       <c r="N109" s="8"/>
       <c r="O109" s="2"/>
     </row>
     <row r="110" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A110" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B110" s="8" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C110" s="8">
         <v>7</v>
       </c>
       <c r="D110" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E110" s="8" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F110" s="8" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G110" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="H110" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="H110" s="8" t="s">
-        <v>59</v>
-      </c>
       <c r="I110" s="8" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="J110" s="8" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K110" s="9" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="L110" s="8" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="M110" s="8" t="s">
-        <v>332</v>
+        <v>313</v>
       </c>
       <c r="N110" s="8"/>
       <c r="O110" s="2"/>
     </row>
     <row r="111" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A111" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B111" s="8" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C111" s="8">
         <v>8</v>
       </c>
       <c r="D111" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E111" s="8" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F111" s="8" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G111" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="H111" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="H111" s="8" t="s">
-        <v>59</v>
-      </c>
       <c r="I111" s="8" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="J111" s="8" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K111" s="9" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="L111" s="8" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="M111" s="8" t="s">
-        <v>333</v>
+        <v>312</v>
       </c>
       <c r="N111" s="8"/>
       <c r="O111" s="2"/>
     </row>
     <row r="112" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A112" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B112" s="8" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C112" s="8">
         <v>9</v>
       </c>
       <c r="D112" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E112" s="8" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F112" s="8" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G112" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="H112" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="H112" s="8" t="s">
-        <v>59</v>
-      </c>
       <c r="I112" s="8" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="J112" s="8" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K112" s="9" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="L112" s="8" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="M112" s="8" t="s">
-        <v>334</v>
+        <v>311</v>
       </c>
       <c r="N112" s="8"/>
       <c r="O112" s="2"/>
     </row>
     <row r="113" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A113" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B113" s="8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C113" s="8">
         <v>10</v>
       </c>
       <c r="D113" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="E113" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="F113" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="G113" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="E113" s="8" t="s">
-        <v>199</v>
-      </c>
-      <c r="F113" s="8" t="s">
-        <v>211</v>
-      </c>
-      <c r="G113" s="8" t="s">
+      <c r="H113" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="H113" s="8" t="s">
-        <v>59</v>
-      </c>
       <c r="I113" s="8" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="J113" s="8" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K113" s="9" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="L113" s="8" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="M113" s="8" t="s">
-        <v>335</v>
+        <v>310</v>
       </c>
       <c r="N113" s="8"/>
       <c r="O113" s="2"/>
@@ -6946,7 +6933,7 @@
   <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6963,19 +6950,19 @@
       <c r="B1" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="13" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>380</v>
-      </c>
-      <c r="C2" s="13" t="s">
-        <v>348</v>
+        <v>408</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -6983,9 +6970,9 @@
         <v>9</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>381</v>
-      </c>
-      <c r="C3" s="13">
+        <v>268</v>
+      </c>
+      <c r="C3" s="12">
         <v>8</v>
       </c>
     </row>
@@ -6994,64 +6981,64 @@
         <v>20</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>394</v>
-      </c>
-      <c r="C4" s="13" t="s">
-        <v>170</v>
+        <v>281</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>402</v>
-      </c>
-      <c r="C5" s="13">
+        <v>288</v>
+      </c>
+      <c r="C5" s="12">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>403</v>
-      </c>
-      <c r="C6" s="13">
+        <v>289</v>
+      </c>
+      <c r="C6" s="12">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>382</v>
+        <v>269</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>392</v>
+        <v>279</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>383</v>
+        <v>270</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>393</v>
+        <v>280</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>384</v>
-      </c>
-      <c r="C9" s="13">
+        <v>271</v>
+      </c>
+      <c r="C9" s="12">
         <v>87</v>
       </c>
     </row>
@@ -7060,21 +7047,21 @@
         <v>12</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>385</v>
-      </c>
-      <c r="C10" s="13" t="s">
-        <v>350</v>
+        <v>272</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
+        <v>224</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>273</v>
+      </c>
+      <c r="C11" s="12" t="s">
         <v>225</v>
-      </c>
-      <c r="B11" s="11" t="s">
-        <v>386</v>
-      </c>
-      <c r="C11" s="13" t="s">
-        <v>336</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -7082,9 +7069,9 @@
         <v>11</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>387</v>
-      </c>
-      <c r="C12" s="13" t="s">
+        <v>274</v>
+      </c>
+      <c r="C12" s="12" t="s">
         <v>13</v>
       </c>
     </row>
@@ -7093,9 +7080,9 @@
         <v>10</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>388</v>
-      </c>
-      <c r="C13" s="13" t="s">
+        <v>275</v>
+      </c>
+      <c r="C13" s="12" t="s">
         <v>14</v>
       </c>
     </row>
@@ -7104,10 +7091,10 @@
         <v>15</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>389</v>
-      </c>
-      <c r="C14" s="13" t="s">
-        <v>172</v>
+        <v>276</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -7115,10 +7102,10 @@
         <v>16</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>390</v>
-      </c>
-      <c r="C15" s="13" t="s">
-        <v>173</v>
+        <v>277</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -7126,10 +7113,10 @@
         <v>17</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>391</v>
-      </c>
-      <c r="C16" s="13" t="s">
-        <v>171</v>
+        <v>278</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -7137,29 +7124,29 @@
         <v>18</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>395</v>
-      </c>
-      <c r="C17" s="13"/>
+        <v>282</v>
+      </c>
+      <c r="C17" s="12"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>283</v>
+      </c>
+      <c r="C18" s="12" t="s">
         <v>174</v>
-      </c>
-      <c r="B18" s="11" t="s">
-        <v>396</v>
-      </c>
-      <c r="C18" s="13" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="10" t="s">
-        <v>224</v>
-      </c>
-      <c r="B19" s="15" t="s">
-        <v>404</v>
-      </c>
-      <c r="C19" s="13">
+        <v>223</v>
+      </c>
+      <c r="B19" s="14" t="s">
+        <v>290</v>
+      </c>
+      <c r="C19" s="12">
         <v>0</v>
       </c>
     </row>
@@ -7173,7 +7160,7 @@
   <dimension ref="A1:C27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7184,300 +7171,300 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="15" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="B2" s="13" t="s">
-        <v>372</v>
-      </c>
-      <c r="C2" s="17" t="s">
-        <v>349</v>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>409</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="14" t="s">
-        <v>223</v>
-      </c>
-      <c r="B3" s="13" t="s">
-        <v>354</v>
-      </c>
-      <c r="C3" s="17" t="s">
-        <v>369</v>
+      <c r="A3" s="13" t="s">
+        <v>222</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>243</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="14" t="s">
-        <v>222</v>
-      </c>
-      <c r="B4" s="13" t="s">
-        <v>353</v>
-      </c>
-      <c r="C4" s="17" t="s">
-        <v>351</v>
+      <c r="A4" s="13" t="s">
+        <v>221</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>242</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A5" s="14" t="s">
-        <v>398</v>
-      </c>
-      <c r="B5" s="13" t="s">
-        <v>352</v>
-      </c>
-      <c r="C5" s="13" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="105" x14ac:dyDescent="0.25">
-      <c r="A6" s="14" t="s">
-        <v>399</v>
-      </c>
-      <c r="B6" s="13" t="s">
-        <v>400</v>
-      </c>
-      <c r="C6" s="13" t="s">
-        <v>401</v>
+      <c r="A5" s="13" t="s">
+        <v>285</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>241</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+      <c r="A6" s="13" t="s">
+        <v>286</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>287</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>407</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="16" t="s">
+      <c r="A7" s="15" t="s">
+        <v>211</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>248</v>
+      </c>
+      <c r="C7" s="16">
+        <v>20170125</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="15" t="s">
+        <v>204</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>251</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="48" x14ac:dyDescent="0.25">
+      <c r="A9" s="15" t="s">
+        <v>205</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>293</v>
+      </c>
+      <c r="C9" s="16">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="18" x14ac:dyDescent="0.25">
+      <c r="A10" s="15" t="s">
+        <v>244</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>245</v>
+      </c>
+      <c r="C10" s="16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="108" x14ac:dyDescent="0.25">
+      <c r="A11" s="15" t="s">
+        <v>226</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>264</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A12" s="15" t="s">
+        <v>249</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>250</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="18" x14ac:dyDescent="0.25">
+      <c r="A13" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>263</v>
+      </c>
+      <c r="C13" s="16">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>262</v>
+      </c>
+      <c r="C14" s="16">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A15" s="13" t="s">
+        <v>215</v>
+      </c>
+      <c r="B15" s="17" t="s">
+        <v>259</v>
+      </c>
+      <c r="C15" s="16" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="78" x14ac:dyDescent="0.25">
+      <c r="A16" s="13" t="s">
+        <v>265</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>261</v>
+      </c>
+      <c r="C16" s="16" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="18" x14ac:dyDescent="0.25">
+      <c r="A17" s="13" t="s">
+        <v>266</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>253</v>
+      </c>
+      <c r="C17" s="16" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A18" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>291</v>
+      </c>
+      <c r="C18" s="16" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A19" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>292</v>
+      </c>
+      <c r="C19" s="16">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>246</v>
+      </c>
+      <c r="C20" s="16">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" s="13" t="s">
+        <v>214</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>255</v>
+      </c>
+      <c r="C21" s="16" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A22" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>247</v>
+      </c>
+      <c r="C22" s="16">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A23" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="B23" s="12" t="s">
+        <v>295</v>
+      </c>
+      <c r="C23" s="16">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A24" s="15" t="s">
         <v>212</v>
       </c>
-      <c r="B7" s="13" t="s">
-        <v>359</v>
-      </c>
-      <c r="C7" s="17">
-        <v>20170125</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="16" t="s">
-        <v>205</v>
-      </c>
-      <c r="B8" s="13" t="s">
-        <v>362</v>
-      </c>
-      <c r="C8" s="17" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="48" x14ac:dyDescent="0.25">
-      <c r="A9" s="16" t="s">
-        <v>206</v>
-      </c>
-      <c r="B9" s="13" t="s">
-        <v>407</v>
-      </c>
-      <c r="C9" s="17">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="18" x14ac:dyDescent="0.25">
-      <c r="A10" s="16" t="s">
-        <v>355</v>
-      </c>
-      <c r="B10" s="13" t="s">
-        <v>356</v>
-      </c>
-      <c r="C10" s="17">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="108" x14ac:dyDescent="0.25">
-      <c r="A11" s="16" t="s">
-        <v>337</v>
-      </c>
-      <c r="B11" s="13" t="s">
-        <v>376</v>
-      </c>
-      <c r="C11" s="17" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A12" s="16" t="s">
-        <v>360</v>
-      </c>
-      <c r="B12" s="13" t="s">
-        <v>361</v>
-      </c>
-      <c r="C12" s="17" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="18" x14ac:dyDescent="0.25">
-      <c r="A13" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="B13" s="13" t="s">
-        <v>375</v>
-      </c>
-      <c r="C13" s="17">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="B14" s="13" t="s">
-        <v>374</v>
-      </c>
-      <c r="C14" s="17">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A15" s="14" t="s">
+      <c r="B24" s="12" t="s">
+        <v>294</v>
+      </c>
+      <c r="C24" s="16">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A25" s="13" t="s">
         <v>216</v>
       </c>
-      <c r="B15" s="18" t="s">
-        <v>370</v>
-      </c>
-      <c r="C15" s="17" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="78" x14ac:dyDescent="0.25">
-      <c r="A16" s="14" t="s">
-        <v>377</v>
-      </c>
-      <c r="B16" s="13" t="s">
-        <v>373</v>
-      </c>
-      <c r="C16" s="17" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="18" x14ac:dyDescent="0.25">
-      <c r="A17" s="14" t="s">
-        <v>378</v>
-      </c>
-      <c r="B17" s="13" t="s">
-        <v>364</v>
-      </c>
-      <c r="C17" s="17" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A18" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="B18" s="13" t="s">
-        <v>405</v>
-      </c>
-      <c r="C18" s="17" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A19" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="B19" s="13" t="s">
-        <v>406</v>
-      </c>
-      <c r="C19" s="17">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="B20" s="13" t="s">
-        <v>357</v>
-      </c>
-      <c r="C20" s="17">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A21" s="14" t="s">
-        <v>215</v>
-      </c>
-      <c r="B21" s="13" t="s">
-        <v>366</v>
-      </c>
-      <c r="C21" s="17" t="s">
+      <c r="B25" s="17" t="s">
+        <v>257</v>
+      </c>
+      <c r="C25" s="16" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A26" s="18" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="B22" s="13" t="s">
-        <v>358</v>
-      </c>
-      <c r="C22" s="17">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A23" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="B23" s="13" t="s">
-        <v>409</v>
-      </c>
-      <c r="C23" s="17">
-        <v>0.95</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A24" s="16" t="s">
-        <v>213</v>
-      </c>
-      <c r="B24" s="13" t="s">
-        <v>408</v>
-      </c>
-      <c r="C24" s="17">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A25" s="14" t="s">
-        <v>217</v>
-      </c>
-      <c r="B25" s="18" t="s">
-        <v>368</v>
-      </c>
-      <c r="C25" s="17" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A26" s="19" t="s">
+      <c r="B26" s="17" t="s">
+        <v>260</v>
+      </c>
+      <c r="C26" s="16" t="s">
         <v>220</v>
       </c>
-      <c r="B26" s="18" t="s">
-        <v>371</v>
-      </c>
-      <c r="C26" s="17" t="s">
-        <v>221</v>
-      </c>
     </row>
     <row r="27" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A27" s="14" t="s">
-        <v>340</v>
-      </c>
-      <c r="B27" s="13" t="s">
-        <v>367</v>
-      </c>
-      <c r="C27" s="17" t="s">
-        <v>341</v>
+      <c r="A27" s="13" t="s">
+        <v>229</v>
+      </c>
+      <c r="B27" s="12" t="s">
+        <v>256</v>
+      </c>
+      <c r="C27" s="16" t="s">
+        <v>230</v>
       </c>
     </row>
   </sheetData>

--- a/case-study/config-henn.xlsx
+++ b/case-study/config-henn.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19725" windowHeight="6525" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19725" windowHeight="6525" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="metadata" sheetId="1" r:id="rId1"/>
@@ -732,12 +732,6 @@
   </si>
   <si>
     <t>trtc</t>
-  </si>
-  <si>
-    <t>/home/tjensen/pre-processing</t>
-  </si>
-  <si>
-    <t>/home/tjensen/results</t>
   </si>
   <si>
     <t>/usr/local/bin/aws</t>
@@ -1055,9 +1049,6 @@
     <t>FastQC programs root directory.</t>
   </si>
   <si>
-    <t>/home/tjensen/msigdb/c2.cp.kegg.v5.2.entrez.gmt;/home/tjensen/msigdb/c2.cp.reactome.v5.2.entrez.gmt;/home/tjensen/msigdb/c5.bp.v5.2.entrez.gmt;/home/tjensen/msigdb/c5.cc.v5.2.entrez.gmt;/home/tjensen/msigdb/c5.mf.v5.2.entrez.gmt;/home/tjensen/msigdb/c7.all.v5.2.entrez.gmt;/home/tjensen/msigdb/BTM_for_GSEA_20131008.gmt</t>
-  </si>
-  <si>
     <t>MSigDB KEGG Pathways;MSigDB Reactome Pathways;MSigDB Biological Processes;MSigDB Cellular Components;MSigDB Molecular Functions;MSigDB Immunological Signatures;Blood Transcription Modules</t>
   </si>
   <si>
@@ -1563,6 +1554,15 @@
   </si>
   <si>
     <t>Output location to where the analysis files and report will be written.</t>
+  </si>
+  <si>
+    <t>/home/rseqrepuser/results</t>
+  </si>
+  <si>
+    <t>/home/rseqrepuser/pre-processing</t>
+  </si>
+  <si>
+    <t>/home/rseqrepuser/gene_sets/c2.cp.kegg.v5.2.entrez.gmt;/home/rseqrepuser/gene_sets/c2.cp.reactome.v5.2.entrez.gmt;/home/rseqrepuser/gene_sets/c5.bp.v5.2.entrez.gmt;/home/rseqrepuser/gene_sets/c5.cc.v5.2.entrez.gmt;/home/rseqrepuser/gene_sets/c5.mf.v5.2.entrez.gmt;/home/rseqrepuser/gene_sets/c7.all.v5.2.entrez.gmt;/home/rseqrepuser/gene_sets/BTM_for_GSEA_20131008.gmt</t>
   </si>
 </sst>
 </file>
@@ -2090,7 +2090,7 @@
         <v>236</v>
       </c>
       <c r="M1" s="7" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="N1" s="7" t="s">
         <v>21</v>
@@ -2225,7 +2225,7 @@
         <v>203</v>
       </c>
       <c r="M4" s="8" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="N4" s="8"/>
       <c r="O4" s="2"/>
@@ -2268,7 +2268,7 @@
         <v>203</v>
       </c>
       <c r="M5" s="8" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="N5" s="8"/>
       <c r="O5" s="2"/>
@@ -2311,7 +2311,7 @@
         <v>203</v>
       </c>
       <c r="M6" s="8" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="N6" s="8"/>
       <c r="O6" s="2"/>
@@ -2354,7 +2354,7 @@
         <v>203</v>
       </c>
       <c r="M7" s="8" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="N7" s="8"/>
       <c r="O7" s="2"/>
@@ -2397,7 +2397,7 @@
         <v>203</v>
       </c>
       <c r="M8" s="8" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="N8" s="8"/>
       <c r="O8" s="2"/>
@@ -2440,7 +2440,7 @@
         <v>203</v>
       </c>
       <c r="M9" s="8" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="N9" s="8"/>
       <c r="O9" s="2"/>
@@ -2483,7 +2483,7 @@
         <v>203</v>
       </c>
       <c r="M10" s="8" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="N10" s="8"/>
       <c r="O10" s="2"/>
@@ -2526,7 +2526,7 @@
         <v>203</v>
       </c>
       <c r="M11" s="8" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="N11" s="8"/>
       <c r="O11" s="2"/>
@@ -2569,7 +2569,7 @@
         <v>203</v>
       </c>
       <c r="M12" s="8" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="N12" s="8"/>
       <c r="O12" s="2"/>
@@ -2612,7 +2612,7 @@
         <v>203</v>
       </c>
       <c r="M13" s="8" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="N13" s="8"/>
       <c r="O13" s="2"/>
@@ -2655,7 +2655,7 @@
         <v>203</v>
       </c>
       <c r="M14" s="8" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="N14" s="8"/>
       <c r="O14" s="2"/>
@@ -2698,7 +2698,7 @@
         <v>203</v>
       </c>
       <c r="M15" s="8" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="N15" s="8"/>
       <c r="O15" s="2"/>
@@ -2741,7 +2741,7 @@
         <v>203</v>
       </c>
       <c r="M16" s="8" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="N16" s="8"/>
       <c r="O16" s="2"/>
@@ -2784,7 +2784,7 @@
         <v>203</v>
       </c>
       <c r="M17" s="8" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="N17" s="8"/>
       <c r="O17" s="2"/>
@@ -2827,7 +2827,7 @@
         <v>203</v>
       </c>
       <c r="M18" s="8" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="N18" s="8"/>
       <c r="O18" s="2"/>
@@ -2870,7 +2870,7 @@
         <v>203</v>
       </c>
       <c r="M19" s="8" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="N19" s="8"/>
       <c r="O19" s="2"/>
@@ -2913,7 +2913,7 @@
         <v>203</v>
       </c>
       <c r="M20" s="8" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="N20" s="8"/>
       <c r="O20" s="2"/>
@@ -2956,7 +2956,7 @@
         <v>203</v>
       </c>
       <c r="M21" s="8" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="N21" s="8"/>
       <c r="O21" s="2"/>
@@ -2999,7 +2999,7 @@
         <v>203</v>
       </c>
       <c r="M22" s="8" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="N22" s="8"/>
       <c r="O22" s="2"/>
@@ -3042,7 +3042,7 @@
         <v>203</v>
       </c>
       <c r="M23" s="8" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="N23" s="8"/>
       <c r="O23" s="2"/>
@@ -3085,7 +3085,7 @@
         <v>203</v>
       </c>
       <c r="M24" s="8" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="N24" s="8"/>
       <c r="O24" s="2"/>
@@ -3128,7 +3128,7 @@
         <v>203</v>
       </c>
       <c r="M25" s="8" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="N25" s="8"/>
       <c r="O25" s="2"/>
@@ -3171,7 +3171,7 @@
         <v>203</v>
       </c>
       <c r="M26" s="8" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="N26" s="8"/>
       <c r="O26" s="2"/>
@@ -3214,7 +3214,7 @@
         <v>203</v>
       </c>
       <c r="M27" s="8" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="N27" s="8"/>
       <c r="O27" s="2"/>
@@ -3257,7 +3257,7 @@
         <v>203</v>
       </c>
       <c r="M28" s="8" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="N28" s="8"/>
       <c r="O28" s="2"/>
@@ -3300,7 +3300,7 @@
         <v>203</v>
       </c>
       <c r="M29" s="8" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="N29" s="8"/>
       <c r="O29" s="2"/>
@@ -3343,7 +3343,7 @@
         <v>203</v>
       </c>
       <c r="M30" s="8" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="N30" s="8"/>
       <c r="O30" s="2"/>
@@ -3386,7 +3386,7 @@
         <v>203</v>
       </c>
       <c r="M31" s="8" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="N31" s="8"/>
       <c r="O31" s="2"/>
@@ -3429,7 +3429,7 @@
         <v>203</v>
       </c>
       <c r="M32" s="8" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="N32" s="8"/>
       <c r="O32" s="2"/>
@@ -3472,7 +3472,7 @@
         <v>203</v>
       </c>
       <c r="M33" s="8" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="N33" s="8"/>
       <c r="O33" s="2"/>
@@ -3515,7 +3515,7 @@
         <v>203</v>
       </c>
       <c r="M34" s="8" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="N34" s="8"/>
       <c r="O34" s="2"/>
@@ -3558,7 +3558,7 @@
         <v>203</v>
       </c>
       <c r="M35" s="8" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="N35" s="8"/>
       <c r="O35" s="2"/>
@@ -3601,7 +3601,7 @@
         <v>203</v>
       </c>
       <c r="M36" s="8" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="N36" s="8"/>
       <c r="O36" s="2"/>
@@ -3644,7 +3644,7 @@
         <v>203</v>
       </c>
       <c r="M37" s="8" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="N37" s="8"/>
       <c r="O37" s="2"/>
@@ -3687,7 +3687,7 @@
         <v>203</v>
       </c>
       <c r="M38" s="8" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="N38" s="8"/>
       <c r="O38" s="2"/>
@@ -3730,7 +3730,7 @@
         <v>203</v>
       </c>
       <c r="M39" s="8" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="N39" s="8"/>
       <c r="O39" s="2"/>
@@ -3773,7 +3773,7 @@
         <v>203</v>
       </c>
       <c r="M40" s="8" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="N40" s="8"/>
       <c r="O40" s="2"/>
@@ -3816,7 +3816,7 @@
         <v>203</v>
       </c>
       <c r="M41" s="8" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="N41" s="8"/>
       <c r="O41" s="2"/>
@@ -3859,7 +3859,7 @@
         <v>203</v>
       </c>
       <c r="M42" s="8" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="N42" s="8"/>
       <c r="O42" s="2"/>
@@ -3902,7 +3902,7 @@
         <v>203</v>
       </c>
       <c r="M43" s="8" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="N43" s="8"/>
       <c r="O43" s="2"/>
@@ -3945,7 +3945,7 @@
         <v>203</v>
       </c>
       <c r="M44" s="8" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="N44" s="8"/>
       <c r="O44" s="2"/>
@@ -3988,7 +3988,7 @@
         <v>203</v>
       </c>
       <c r="M45" s="8" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="N45" s="8"/>
       <c r="O45" s="2"/>
@@ -4031,7 +4031,7 @@
         <v>203</v>
       </c>
       <c r="M46" s="8" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="N46" s="8"/>
       <c r="O46" s="2"/>
@@ -4074,7 +4074,7 @@
         <v>203</v>
       </c>
       <c r="M47" s="8" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="N47" s="8"/>
       <c r="O47" s="2"/>
@@ -4117,7 +4117,7 @@
         <v>203</v>
       </c>
       <c r="M48" s="8" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="N48" s="8"/>
       <c r="O48" s="2"/>
@@ -4160,7 +4160,7 @@
         <v>203</v>
       </c>
       <c r="M49" s="8" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="N49" s="8"/>
       <c r="O49" s="2"/>
@@ -4203,7 +4203,7 @@
         <v>203</v>
       </c>
       <c r="M50" s="8" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="N50" s="8"/>
       <c r="O50" s="2"/>
@@ -4246,7 +4246,7 @@
         <v>203</v>
       </c>
       <c r="M51" s="8" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="N51" s="8"/>
       <c r="O51" s="2"/>
@@ -4289,7 +4289,7 @@
         <v>203</v>
       </c>
       <c r="M52" s="8" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="N52" s="8"/>
       <c r="O52" s="2"/>
@@ -4332,7 +4332,7 @@
         <v>203</v>
       </c>
       <c r="M53" s="8" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="N53" s="8"/>
       <c r="O53" s="2"/>
@@ -4375,7 +4375,7 @@
         <v>203</v>
       </c>
       <c r="M54" s="8" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="N54" s="8"/>
       <c r="O54" s="2"/>
@@ -4418,7 +4418,7 @@
         <v>203</v>
       </c>
       <c r="M55" s="8" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="N55" s="8"/>
       <c r="O55" s="2"/>
@@ -4461,7 +4461,7 @@
         <v>203</v>
       </c>
       <c r="M56" s="8" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="N56" s="8"/>
       <c r="O56" s="2"/>
@@ -4504,7 +4504,7 @@
         <v>203</v>
       </c>
       <c r="M57" s="8" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="N57" s="8"/>
       <c r="O57" s="2"/>
@@ -4547,7 +4547,7 @@
         <v>203</v>
       </c>
       <c r="M58" s="8" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="N58" s="8"/>
       <c r="O58" s="2"/>
@@ -4590,7 +4590,7 @@
         <v>203</v>
       </c>
       <c r="M59" s="8" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="N59" s="8"/>
       <c r="O59" s="2"/>
@@ -4633,7 +4633,7 @@
         <v>203</v>
       </c>
       <c r="M60" s="8" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="N60" s="8"/>
       <c r="O60" s="2"/>
@@ -4676,7 +4676,7 @@
         <v>203</v>
       </c>
       <c r="M61" s="8" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="N61" s="8"/>
       <c r="O61" s="2"/>
@@ -4719,7 +4719,7 @@
         <v>203</v>
       </c>
       <c r="M62" s="8" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="N62" s="8"/>
       <c r="O62" s="2"/>
@@ -4762,7 +4762,7 @@
         <v>203</v>
       </c>
       <c r="M63" s="8" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="N63" s="8"/>
       <c r="O63" s="2"/>
@@ -4805,7 +4805,7 @@
         <v>203</v>
       </c>
       <c r="M64" s="8" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="N64" s="8"/>
       <c r="O64" s="2"/>
@@ -4848,7 +4848,7 @@
         <v>203</v>
       </c>
       <c r="M65" s="8" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="N65" s="8"/>
       <c r="O65" s="2"/>
@@ -4891,7 +4891,7 @@
         <v>203</v>
       </c>
       <c r="M66" s="8" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="N66" s="8"/>
       <c r="O66" s="2"/>
@@ -4934,7 +4934,7 @@
         <v>203</v>
       </c>
       <c r="M67" s="8" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="N67" s="8"/>
       <c r="O67" s="2"/>
@@ -4977,7 +4977,7 @@
         <v>203</v>
       </c>
       <c r="M68" s="8" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="N68" s="8"/>
       <c r="O68" s="2"/>
@@ -5020,7 +5020,7 @@
         <v>203</v>
       </c>
       <c r="M69" s="8" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="N69" s="8"/>
       <c r="O69" s="2"/>
@@ -5063,7 +5063,7 @@
         <v>203</v>
       </c>
       <c r="M70" s="8" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="N70" s="8"/>
       <c r="O70" s="2"/>
@@ -5106,7 +5106,7 @@
         <v>203</v>
       </c>
       <c r="M71" s="8" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="N71" s="8"/>
       <c r="O71" s="2"/>
@@ -5149,7 +5149,7 @@
         <v>203</v>
       </c>
       <c r="M72" s="8" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="N72" s="8"/>
       <c r="O72" s="2"/>
@@ -5192,7 +5192,7 @@
         <v>203</v>
       </c>
       <c r="M73" s="8" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="N73" s="8"/>
       <c r="O73" s="2"/>
@@ -5235,7 +5235,7 @@
         <v>203</v>
       </c>
       <c r="M74" s="8" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="N74" s="8"/>
       <c r="O74" s="2"/>
@@ -5278,7 +5278,7 @@
         <v>203</v>
       </c>
       <c r="M75" s="8" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="N75" s="8"/>
       <c r="O75" s="2"/>
@@ -5321,7 +5321,7 @@
         <v>203</v>
       </c>
       <c r="M76" s="8" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="N76" s="8"/>
       <c r="O76" s="2"/>
@@ -5364,7 +5364,7 @@
         <v>203</v>
       </c>
       <c r="M77" s="8" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="N77" s="8"/>
       <c r="O77" s="2"/>
@@ -5407,7 +5407,7 @@
         <v>203</v>
       </c>
       <c r="M78" s="8" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="N78" s="8"/>
       <c r="O78" s="2"/>
@@ -5450,7 +5450,7 @@
         <v>203</v>
       </c>
       <c r="M79" s="8" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="N79" s="8"/>
       <c r="O79" s="2"/>
@@ -5493,7 +5493,7 @@
         <v>203</v>
       </c>
       <c r="M80" s="8" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="N80" s="8"/>
       <c r="O80" s="2"/>
@@ -5536,7 +5536,7 @@
         <v>203</v>
       </c>
       <c r="M81" s="8" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="N81" s="8"/>
       <c r="O81" s="2"/>
@@ -5579,7 +5579,7 @@
         <v>203</v>
       </c>
       <c r="M82" s="8" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="N82" s="8"/>
       <c r="O82" s="2"/>
@@ -5622,7 +5622,7 @@
         <v>203</v>
       </c>
       <c r="M83" s="8" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="N83" s="8"/>
       <c r="O83" s="2"/>
@@ -5665,7 +5665,7 @@
         <v>203</v>
       </c>
       <c r="M84" s="8" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="N84" s="8"/>
       <c r="O84" s="2"/>
@@ -5708,7 +5708,7 @@
         <v>203</v>
       </c>
       <c r="M85" s="8" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="N85" s="8"/>
       <c r="O85" s="2"/>
@@ -5751,7 +5751,7 @@
         <v>203</v>
       </c>
       <c r="M86" s="8" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="N86" s="8"/>
       <c r="O86" s="2"/>
@@ -5794,7 +5794,7 @@
         <v>203</v>
       </c>
       <c r="M87" s="8" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="N87" s="8"/>
       <c r="O87" s="2"/>
@@ -5837,7 +5837,7 @@
         <v>203</v>
       </c>
       <c r="M88" s="8" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="N88" s="8"/>
       <c r="O88" s="2"/>
@@ -5880,7 +5880,7 @@
         <v>203</v>
       </c>
       <c r="M89" s="8" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="N89" s="8"/>
       <c r="O89" s="2"/>
@@ -5923,7 +5923,7 @@
         <v>203</v>
       </c>
       <c r="M90" s="8" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="N90" s="8"/>
       <c r="O90" s="2"/>
@@ -5966,7 +5966,7 @@
         <v>203</v>
       </c>
       <c r="M91" s="8" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="N91" s="8"/>
       <c r="O91" s="2"/>
@@ -6009,7 +6009,7 @@
         <v>203</v>
       </c>
       <c r="M92" s="8" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="N92" s="8"/>
       <c r="O92" s="2"/>
@@ -6052,7 +6052,7 @@
         <v>203</v>
       </c>
       <c r="M93" s="8" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="N93" s="8"/>
       <c r="O93" s="2"/>
@@ -6095,7 +6095,7 @@
         <v>203</v>
       </c>
       <c r="M94" s="8" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="N94" s="8"/>
       <c r="O94" s="2"/>
@@ -6138,7 +6138,7 @@
         <v>203</v>
       </c>
       <c r="M95" s="8" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="N95" s="8"/>
       <c r="O95" s="2"/>
@@ -6181,7 +6181,7 @@
         <v>203</v>
       </c>
       <c r="M96" s="8" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="N96" s="8"/>
       <c r="O96" s="2"/>
@@ -6224,7 +6224,7 @@
         <v>203</v>
       </c>
       <c r="M97" s="8" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="N97" s="8"/>
       <c r="O97" s="2"/>
@@ -6267,7 +6267,7 @@
         <v>203</v>
       </c>
       <c r="M98" s="8" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="N98" s="8"/>
       <c r="O98" s="2"/>
@@ -6310,7 +6310,7 @@
         <v>203</v>
       </c>
       <c r="M99" s="8" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="N99" s="8"/>
       <c r="O99" s="2"/>
@@ -6353,7 +6353,7 @@
         <v>203</v>
       </c>
       <c r="M100" s="8" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="N100" s="8"/>
       <c r="O100" s="2"/>
@@ -6396,7 +6396,7 @@
         <v>203</v>
       </c>
       <c r="M101" s="8" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="N101" s="8"/>
       <c r="O101" s="2"/>
@@ -6439,7 +6439,7 @@
         <v>203</v>
       </c>
       <c r="M102" s="8" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="N102" s="8"/>
       <c r="O102" s="2"/>
@@ -6482,7 +6482,7 @@
         <v>203</v>
       </c>
       <c r="M103" s="8" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="N103" s="8"/>
       <c r="O103" s="2"/>
@@ -6525,7 +6525,7 @@
         <v>203</v>
       </c>
       <c r="M104" s="8" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="N104" s="8"/>
       <c r="O104" s="2"/>
@@ -6568,7 +6568,7 @@
         <v>203</v>
       </c>
       <c r="M105" s="8" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="N105" s="8"/>
       <c r="O105" s="2"/>
@@ -6611,7 +6611,7 @@
         <v>203</v>
       </c>
       <c r="M106" s="8" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="N106" s="8"/>
       <c r="O106" s="2"/>
@@ -6654,7 +6654,7 @@
         <v>203</v>
       </c>
       <c r="M107" s="8" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="N107" s="8"/>
       <c r="O107" s="2"/>
@@ -6697,7 +6697,7 @@
         <v>203</v>
       </c>
       <c r="M108" s="8" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="N108" s="8"/>
       <c r="O108" s="2"/>
@@ -6740,7 +6740,7 @@
         <v>203</v>
       </c>
       <c r="M109" s="8" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="N109" s="8"/>
       <c r="O109" s="2"/>
@@ -6783,7 +6783,7 @@
         <v>203</v>
       </c>
       <c r="M110" s="8" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="N110" s="8"/>
       <c r="O110" s="2"/>
@@ -6826,7 +6826,7 @@
         <v>203</v>
       </c>
       <c r="M111" s="8" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="N111" s="8"/>
       <c r="O111" s="2"/>
@@ -6869,7 +6869,7 @@
         <v>203</v>
       </c>
       <c r="M112" s="8" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="N112" s="8"/>
       <c r="O112" s="2"/>
@@ -6912,7 +6912,7 @@
         <v>203</v>
       </c>
       <c r="M113" s="8" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="N113" s="8"/>
       <c r="O113" s="2"/>
@@ -6932,8 +6932,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6959,10 +6959,10 @@
         <v>23</v>
       </c>
       <c r="B2" s="11" t="s">
+        <v>405</v>
+      </c>
+      <c r="C2" s="12" t="s">
         <v>408</v>
-      </c>
-      <c r="C2" s="12" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -6970,7 +6970,7 @@
         <v>9</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C3" s="12">
         <v>8</v>
@@ -6981,7 +6981,7 @@
         <v>20</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="C4" s="12" t="s">
         <v>169</v>
@@ -6992,7 +6992,7 @@
         <v>213</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="C5" s="12">
         <v>0</v>
@@ -7003,7 +7003,7 @@
         <v>175</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="C6" s="12">
         <v>0</v>
@@ -7014,10 +7014,10 @@
         <v>32</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>279</v>
+        <v>409</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -7025,10 +7025,10 @@
         <v>33</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -7036,7 +7036,7 @@
         <v>176</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C9" s="12">
         <v>87</v>
@@ -7047,10 +7047,10 @@
         <v>12</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -7058,7 +7058,7 @@
         <v>224</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C11" s="12" t="s">
         <v>225</v>
@@ -7069,7 +7069,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C12" s="12" t="s">
         <v>13</v>
@@ -7080,7 +7080,7 @@
         <v>10</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C13" s="12" t="s">
         <v>14</v>
@@ -7091,7 +7091,7 @@
         <v>15</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C14" s="12" t="s">
         <v>171</v>
@@ -7102,7 +7102,7 @@
         <v>16</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C15" s="12" t="s">
         <v>172</v>
@@ -7113,7 +7113,7 @@
         <v>17</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C16" s="12" t="s">
         <v>170</v>
@@ -7124,7 +7124,7 @@
         <v>18</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="C17" s="12"/>
     </row>
@@ -7133,7 +7133,7 @@
         <v>173</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="C18" s="12" t="s">
         <v>174</v>
@@ -7144,7 +7144,7 @@
         <v>223</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="C19" s="12">
         <v>0</v>
@@ -7159,8 +7159,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7186,10 +7186,10 @@
         <v>22</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>238</v>
+        <v>407</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -7197,10 +7197,10 @@
         <v>222</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -7208,32 +7208,32 @@
         <v>221</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="90" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -7241,7 +7241,7 @@
         <v>211</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C7" s="16">
         <v>20170125</v>
@@ -7252,10 +7252,10 @@
         <v>204</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="48" x14ac:dyDescent="0.25">
@@ -7263,7 +7263,7 @@
         <v>205</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="C9" s="16">
         <v>0.5</v>
@@ -7271,10 +7271,10 @@
     </row>
     <row r="10" spans="1:3" ht="18" x14ac:dyDescent="0.25">
       <c r="A10" s="15" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C10" s="16">
         <v>3</v>
@@ -7285,7 +7285,7 @@
         <v>226</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C11" s="16" t="s">
         <v>227</v>
@@ -7293,13 +7293,13 @@
     </row>
     <row r="12" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="15" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C12" s="16" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="18" x14ac:dyDescent="0.25">
@@ -7307,7 +7307,7 @@
         <v>24</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C13" s="16">
         <v>1.5</v>
@@ -7318,7 +7318,7 @@
         <v>25</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C14" s="16">
         <v>0.05</v>
@@ -7329,7 +7329,7 @@
         <v>215</v>
       </c>
       <c r="B15" s="17" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C15" s="16" t="s">
         <v>228</v>
@@ -7337,21 +7337,21 @@
     </row>
     <row r="16" spans="1:3" ht="78" x14ac:dyDescent="0.25">
       <c r="A16" s="13" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C16" s="16" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="18" x14ac:dyDescent="0.25">
       <c r="A17" s="13" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C17" s="16" t="s">
         <v>217</v>
@@ -7362,7 +7362,7 @@
         <v>26</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="C18" s="16" t="s">
         <v>29</v>
@@ -7373,7 +7373,7 @@
         <v>27</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="C19" s="16">
         <v>10000</v>
@@ -7384,7 +7384,7 @@
         <v>28</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C20" s="16">
         <v>0.1</v>
@@ -7395,7 +7395,7 @@
         <v>214</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C21" s="16" t="s">
         <v>218</v>
@@ -7406,7 +7406,7 @@
         <v>34</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C22" s="16">
         <v>0.5</v>
@@ -7417,7 +7417,7 @@
         <v>35</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="C23" s="16">
         <v>0.95</v>
@@ -7428,7 +7428,7 @@
         <v>212</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="C24" s="16">
         <v>1000</v>
@@ -7439,7 +7439,7 @@
         <v>216</v>
       </c>
       <c r="B25" s="17" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C25" s="16" t="s">
         <v>228</v>
@@ -7450,7 +7450,7 @@
         <v>219</v>
       </c>
       <c r="B26" s="17" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C26" s="16" t="s">
         <v>220</v>
@@ -7461,7 +7461,7 @@
         <v>229</v>
       </c>
       <c r="B27" s="12" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C27" s="16" t="s">
         <v>230</v>

--- a/case-study/config-henn.xlsx
+++ b/case-study/config-henn.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17329"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18431"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19725" windowHeight="6525" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19725" windowHeight="6525"/>
   </bookViews>
   <sheets>
     <sheet name="metadata" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1484" uniqueCount="410">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2846" uniqueCount="410">
   <si>
     <t>&lt;string&gt;</t>
   </si>
@@ -80,9 +80,6 @@
     <t>star_prog</t>
   </si>
   <si>
-    <t>Fastq File name (uncompressed or gzip compressed); For local files use path from root; for Amazon S3 files, use s3://&lt;bucket&gt;/&lt;key&gt;</t>
-  </si>
-  <si>
     <t>decrypt_pass</t>
   </si>
   <si>
@@ -114,9 +111,6 @@
   </si>
   <si>
     <t>Timepoint -- can be hours, days, weeks…</t>
-  </si>
-  <si>
-    <t>Used only for paired end reads.  If the reads are single ended, leave this column blank.  See fastq_file_1 description</t>
   </si>
   <si>
     <t>gmt_entrez_files</t>
@@ -1563,6 +1557,12 @@
   </si>
   <si>
     <t>/home/rseqrepuser/gene_sets/c2.cp.kegg.v5.2.entrez.gmt;/home/rseqrepuser/gene_sets/c2.cp.reactome.v5.2.entrez.gmt;/home/rseqrepuser/gene_sets/c5.bp.v5.2.entrez.gmt;/home/rseqrepuser/gene_sets/c5.cc.v5.2.entrez.gmt;/home/rseqrepuser/gene_sets/c5.mf.v5.2.entrez.gmt;/home/rseqrepuser/gene_sets/c7.all.v5.2.entrez.gmt;/home/rseqrepuser/gene_sets/BTM_for_GSEA_20131008.gmt</t>
+  </si>
+  <si>
+    <t>Fastq File name (uncompressed or gzip compressed); For local files use path from root; for Amazon S3 files, use s3://&lt;bucket&gt;/&lt;key&gt;.  For multiplexed fastq files, enter each fastq name seperated by a semicolin. They will be merged prior to alignment</t>
+  </si>
+  <si>
+    <t>Used only for paired end reads.  If the reads are single ended, leave this column blank.  See fastq_file_1 description.  For multiplexed fastq files, enter each fastq name seperated by a semicolin. They will be merged prior to alignment</t>
   </si>
 </sst>
 </file>
@@ -2032,7 +2032,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O114"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="O15" sqref="O15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2054,91 +2056,91 @@
   <sheetData>
     <row r="1" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="7" t="s">
-        <v>38</v>
-      </c>
       <c r="C1" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="E1" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="D1" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>179</v>
-      </c>
       <c r="F1" s="7" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="G1" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="I1" s="7" t="s">
         <v>231</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="J1" s="7" t="s">
         <v>232</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="K1" s="7" t="s">
         <v>233</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="L1" s="7" t="s">
         <v>234</v>
       </c>
-      <c r="K1" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="L1" s="7" t="s">
-        <v>236</v>
-      </c>
       <c r="M1" s="7" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="N1" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O1" s="3"/>
     </row>
     <row r="2" spans="1:15" s="6" customFormat="1" ht="70.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="7" t="s">
-        <v>39</v>
-      </c>
       <c r="C2" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E2" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="H2" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="F2" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="G2" s="7" t="s">
+      <c r="I2" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="J2" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="K2" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="J2" s="7" t="s">
+      <c r="L2" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="K2" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="L2" s="7" t="s">
-        <v>186</v>
-      </c>
       <c r="M2" s="7" t="s">
-        <v>19</v>
+        <v>408</v>
       </c>
       <c r="N2" s="7" t="s">
-        <v>31</v>
+        <v>409</v>
       </c>
       <c r="O2" s="3"/>
     </row>
@@ -2156,10 +2158,10 @@
         <v>0</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="G3" s="7" t="s">
         <v>3</v>
@@ -2168,7 +2170,7 @@
         <v>0</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="J3" s="7" t="s">
         <v>3</v>
@@ -2177,7 +2179,7 @@
         <v>0</v>
       </c>
       <c r="L3" s="7" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="M3" s="7" t="s">
         <v>2</v>
@@ -2189,22 +2191,22 @@
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C4" s="8">
         <v>0</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="G4" s="8" t="s">
         <v>4</v>
@@ -2213,41 +2215,41 @@
         <v>5</v>
       </c>
       <c r="I4" s="8" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="J4" s="8" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K4" s="9" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="L4" s="8" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="M4" s="8" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="N4" s="8"/>
       <c r="O4" s="2"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C5" s="8">
         <v>1</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="G5" s="8" t="s">
         <v>4</v>
@@ -2256,41 +2258,41 @@
         <v>5</v>
       </c>
       <c r="I5" s="8" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="J5" s="8" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K5" s="9" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="L5" s="8" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="M5" s="8" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="N5" s="8"/>
       <c r="O5" s="2"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C6" s="8">
         <v>2</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="G6" s="8" t="s">
         <v>4</v>
@@ -2299,41 +2301,41 @@
         <v>5</v>
       </c>
       <c r="I6" s="8" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="J6" s="8" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K6" s="9" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="L6" s="8" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="M6" s="8" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="N6" s="8"/>
       <c r="O6" s="2"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C7" s="8">
         <v>3</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="G7" s="8" t="s">
         <v>4</v>
@@ -2342,41 +2344,41 @@
         <v>5</v>
       </c>
       <c r="I7" s="8" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="J7" s="8" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K7" s="9" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="L7" s="8" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="M7" s="8" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="N7" s="8"/>
       <c r="O7" s="2"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C8" s="8">
         <v>4</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="G8" s="8" t="s">
         <v>4</v>
@@ -2385,41 +2387,41 @@
         <v>5</v>
       </c>
       <c r="I8" s="8" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="J8" s="8" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K8" s="9" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="L8" s="8" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="M8" s="8" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="N8" s="8"/>
       <c r="O8" s="2"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C9" s="8">
         <v>5</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="G9" s="8" t="s">
         <v>4</v>
@@ -2428,41 +2430,41 @@
         <v>5</v>
       </c>
       <c r="I9" s="8" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="J9" s="8" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K9" s="9" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="L9" s="8" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="M9" s="8" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="N9" s="8"/>
       <c r="O9" s="2"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C10" s="8">
         <v>6</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="G10" s="8" t="s">
         <v>4</v>
@@ -2471,41 +2473,41 @@
         <v>5</v>
       </c>
       <c r="I10" s="8" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="J10" s="8" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K10" s="9" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="L10" s="8" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="M10" s="8" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="N10" s="8"/>
       <c r="O10" s="2"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C11" s="8">
         <v>7</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="G11" s="8" t="s">
         <v>4</v>
@@ -2514,41 +2516,41 @@
         <v>5</v>
       </c>
       <c r="I11" s="8" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="J11" s="8" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K11" s="9" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="L11" s="8" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="M11" s="8" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="N11" s="8"/>
       <c r="O11" s="2"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C12" s="8">
         <v>8</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="G12" s="8" t="s">
         <v>4</v>
@@ -2557,41 +2559,41 @@
         <v>5</v>
       </c>
       <c r="I12" s="8" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="J12" s="8" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K12" s="9" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="L12" s="8" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="M12" s="8" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="N12" s="8"/>
       <c r="O12" s="2"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C13" s="8">
         <v>9</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="G13" s="8" t="s">
         <v>4</v>
@@ -2600,41 +2602,41 @@
         <v>5</v>
       </c>
       <c r="I13" s="8" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="J13" s="8" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K13" s="9" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="L13" s="8" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="M13" s="8" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="N13" s="8"/>
       <c r="O13" s="2"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C14" s="8">
         <v>10</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="G14" s="8" t="s">
         <v>4</v>
@@ -2643,41 +2645,41 @@
         <v>5</v>
       </c>
       <c r="I14" s="8" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="J14" s="8" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K14" s="9" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="L14" s="8" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="M14" s="8" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="N14" s="8"/>
       <c r="O14" s="2"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C15" s="8">
         <v>0</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="G15" s="8" t="s">
         <v>4</v>
@@ -2686,41 +2688,41 @@
         <v>5</v>
       </c>
       <c r="I15" s="8" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="J15" s="8" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K15" s="9" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="L15" s="8" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="M15" s="8" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="N15" s="8"/>
       <c r="O15" s="2"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C16" s="8">
         <v>1</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="G16" s="8" t="s">
         <v>4</v>
@@ -2729,41 +2731,41 @@
         <v>5</v>
       </c>
       <c r="I16" s="8" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="J16" s="8" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K16" s="9" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="L16" s="8" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="M16" s="8" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="N16" s="8"/>
       <c r="O16" s="2"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C17" s="8">
         <v>2</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="G17" s="8" t="s">
         <v>4</v>
@@ -2772,41 +2774,41 @@
         <v>5</v>
       </c>
       <c r="I17" s="8" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="J17" s="8" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K17" s="9" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="L17" s="8" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="M17" s="8" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="N17" s="8"/>
       <c r="O17" s="2"/>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C18" s="8">
         <v>3</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="G18" s="8" t="s">
         <v>4</v>
@@ -2815,41 +2817,41 @@
         <v>5</v>
       </c>
       <c r="I18" s="8" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="J18" s="8" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K18" s="9" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="L18" s="8" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="M18" s="8" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="N18" s="8"/>
       <c r="O18" s="2"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C19" s="8">
         <v>4</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="G19" s="8" t="s">
         <v>4</v>
@@ -2858,41 +2860,41 @@
         <v>5</v>
       </c>
       <c r="I19" s="8" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="J19" s="8" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K19" s="9" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="L19" s="8" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="M19" s="8" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="N19" s="8"/>
       <c r="O19" s="2"/>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C20" s="8">
         <v>5</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="G20" s="8" t="s">
         <v>4</v>
@@ -2901,41 +2903,41 @@
         <v>5</v>
       </c>
       <c r="I20" s="8" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="J20" s="8" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K20" s="9" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="L20" s="8" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="M20" s="8" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="N20" s="8"/>
       <c r="O20" s="2"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C21" s="8">
         <v>6</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="G21" s="8" t="s">
         <v>4</v>
@@ -2944,41 +2946,41 @@
         <v>5</v>
       </c>
       <c r="I21" s="8" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="J21" s="8" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K21" s="9" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="L21" s="8" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="M21" s="8" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="N21" s="8"/>
       <c r="O21" s="2"/>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C22" s="8">
         <v>7</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F22" s="8" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="G22" s="8" t="s">
         <v>4</v>
@@ -2987,41 +2989,41 @@
         <v>5</v>
       </c>
       <c r="I22" s="8" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="J22" s="8" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K22" s="9" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="L22" s="8" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="M22" s="8" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="N22" s="8"/>
       <c r="O22" s="2"/>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C23" s="8">
         <v>8</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="G23" s="8" t="s">
         <v>4</v>
@@ -3030,41 +3032,41 @@
         <v>5</v>
       </c>
       <c r="I23" s="8" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="J23" s="8" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K23" s="9" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="L23" s="8" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="M23" s="8" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="N23" s="8"/>
       <c r="O23" s="2"/>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="8" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C24" s="8">
         <v>9</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E24" s="8" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F24" s="8" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="G24" s="8" t="s">
         <v>4</v>
@@ -3073,41 +3075,41 @@
         <v>5</v>
       </c>
       <c r="I24" s="8" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="J24" s="8" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K24" s="9" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="L24" s="8" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="M24" s="8" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="N24" s="8"/>
       <c r="O24" s="2"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="8" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C25" s="8">
         <v>10</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E25" s="8" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="F25" s="8" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="G25" s="8" t="s">
         <v>4</v>
@@ -3116,41 +3118,41 @@
         <v>5</v>
       </c>
       <c r="I25" s="8" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="J25" s="8" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K25" s="9" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="L25" s="8" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="M25" s="8" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="N25" s="8"/>
       <c r="O25" s="2"/>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="8" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C26" s="8">
         <v>0</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E26" s="8" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="F26" s="8" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="G26" s="8" t="s">
         <v>4</v>
@@ -3159,41 +3161,41 @@
         <v>5</v>
       </c>
       <c r="I26" s="8" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="J26" s="8" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K26" s="9" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="L26" s="8" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="M26" s="8" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="N26" s="8"/>
       <c r="O26" s="2"/>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="8" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C27" s="8">
         <v>1</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E27" s="8" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F27" s="8" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="G27" s="8" t="s">
         <v>4</v>
@@ -3202,41 +3204,41 @@
         <v>5</v>
       </c>
       <c r="I27" s="8" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="J27" s="8" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K27" s="9" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="L27" s="8" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="M27" s="8" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="N27" s="8"/>
       <c r="O27" s="2"/>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="8" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C28" s="8">
         <v>2</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E28" s="8" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="F28" s="8" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="G28" s="8" t="s">
         <v>4</v>
@@ -3245,41 +3247,41 @@
         <v>5</v>
       </c>
       <c r="I28" s="8" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="J28" s="8" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K28" s="9" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="L28" s="8" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="M28" s="8" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="N28" s="8"/>
       <c r="O28" s="2"/>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="8" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C29" s="8">
         <v>3</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E29" s="8" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F29" s="8" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="G29" s="8" t="s">
         <v>4</v>
@@ -3288,41 +3290,41 @@
         <v>5</v>
       </c>
       <c r="I29" s="8" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="J29" s="8" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K29" s="9" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="L29" s="8" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="M29" s="8" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="N29" s="8"/>
       <c r="O29" s="2"/>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="8" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C30" s="8">
         <v>4</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E30" s="8" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="F30" s="8" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="G30" s="8" t="s">
         <v>4</v>
@@ -3331,41 +3333,41 @@
         <v>5</v>
       </c>
       <c r="I30" s="8" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="J30" s="8" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K30" s="9" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="L30" s="8" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="M30" s="8" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="N30" s="8"/>
       <c r="O30" s="2"/>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="8" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C31" s="8">
         <v>5</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E31" s="8" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="F31" s="8" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="G31" s="8" t="s">
         <v>4</v>
@@ -3374,41 +3376,41 @@
         <v>5</v>
       </c>
       <c r="I31" s="8" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="J31" s="8" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K31" s="9" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="L31" s="8" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="M31" s="8" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="N31" s="8"/>
       <c r="O31" s="2"/>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="8" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C32" s="8">
         <v>6</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E32" s="8" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="F32" s="8" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="G32" s="8" t="s">
         <v>4</v>
@@ -3417,41 +3419,41 @@
         <v>5</v>
       </c>
       <c r="I32" s="8" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="J32" s="8" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K32" s="9" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="L32" s="8" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="M32" s="8" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="N32" s="8"/>
       <c r="O32" s="2"/>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" s="8" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C33" s="8">
         <v>7</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E33" s="8" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F33" s="8" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="G33" s="8" t="s">
         <v>4</v>
@@ -3460,41 +3462,41 @@
         <v>5</v>
       </c>
       <c r="I33" s="8" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="J33" s="8" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K33" s="9" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="L33" s="8" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="M33" s="8" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="N33" s="8"/>
       <c r="O33" s="2"/>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" s="8" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C34" s="8">
         <v>8</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E34" s="8" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="F34" s="8" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="G34" s="8" t="s">
         <v>4</v>
@@ -3503,41 +3505,41 @@
         <v>5</v>
       </c>
       <c r="I34" s="8" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="J34" s="8" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K34" s="9" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="L34" s="8" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="M34" s="8" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="N34" s="8"/>
       <c r="O34" s="2"/>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" s="8" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C35" s="8">
         <v>9</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E35" s="8" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F35" s="8" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="G35" s="8" t="s">
         <v>4</v>
@@ -3546,41 +3548,41 @@
         <v>5</v>
       </c>
       <c r="I35" s="8" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="J35" s="8" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K35" s="9" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="L35" s="8" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="M35" s="8" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="N35" s="8"/>
       <c r="O35" s="2"/>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" s="8" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C36" s="8">
         <v>10</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E36" s="8" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="F36" s="8" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="G36" s="8" t="s">
         <v>4</v>
@@ -3589,41 +3591,41 @@
         <v>5</v>
       </c>
       <c r="I36" s="8" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="J36" s="8" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K36" s="9" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="L36" s="8" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="M36" s="8" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="N36" s="8"/>
       <c r="O36" s="2"/>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" s="8" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C37" s="8">
         <v>0</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E37" s="8" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="F37" s="8" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="G37" s="8" t="s">
         <v>4</v>
@@ -3632,41 +3634,41 @@
         <v>5</v>
       </c>
       <c r="I37" s="8" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="J37" s="8" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K37" s="9" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="L37" s="8" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="M37" s="8" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="N37" s="8"/>
       <c r="O37" s="2"/>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" s="8" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C38" s="8">
         <v>1</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E38" s="8" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F38" s="8" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="G38" s="8" t="s">
         <v>4</v>
@@ -3675,41 +3677,41 @@
         <v>5</v>
       </c>
       <c r="I38" s="8" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="J38" s="8" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K38" s="9" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="L38" s="8" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="M38" s="8" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="N38" s="8"/>
       <c r="O38" s="2"/>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" s="8" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C39" s="8">
         <v>2</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E39" s="8" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="F39" s="8" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="G39" s="8" t="s">
         <v>4</v>
@@ -3718,41 +3720,41 @@
         <v>5</v>
       </c>
       <c r="I39" s="8" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="J39" s="8" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K39" s="9" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="L39" s="8" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="M39" s="8" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="N39" s="8"/>
       <c r="O39" s="2"/>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" s="8" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C40" s="8">
         <v>3</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E40" s="8" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F40" s="8" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="G40" s="8" t="s">
         <v>4</v>
@@ -3761,41 +3763,41 @@
         <v>5</v>
       </c>
       <c r="I40" s="8" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="J40" s="8" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K40" s="9" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="L40" s="8" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="M40" s="8" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="N40" s="8"/>
       <c r="O40" s="2"/>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" s="8" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C41" s="8">
         <v>4</v>
       </c>
       <c r="D41" s="8" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E41" s="8" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="F41" s="8" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="G41" s="8" t="s">
         <v>4</v>
@@ -3804,41 +3806,41 @@
         <v>5</v>
       </c>
       <c r="I41" s="8" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="J41" s="8" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K41" s="9" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="L41" s="8" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="M41" s="8" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="N41" s="8"/>
       <c r="O41" s="2"/>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" s="8" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C42" s="8">
         <v>5</v>
       </c>
       <c r="D42" s="8" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E42" s="8" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="F42" s="8" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="G42" s="8" t="s">
         <v>4</v>
@@ -3847,41 +3849,41 @@
         <v>5</v>
       </c>
       <c r="I42" s="8" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="J42" s="8" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K42" s="9" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="L42" s="8" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="M42" s="8" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="N42" s="8"/>
       <c r="O42" s="2"/>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" s="8" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C43" s="8">
         <v>6</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E43" s="8" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="F43" s="8" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="G43" s="8" t="s">
         <v>4</v>
@@ -3890,41 +3892,41 @@
         <v>5</v>
       </c>
       <c r="I43" s="8" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="J43" s="8" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K43" s="9" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="L43" s="8" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="M43" s="8" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="N43" s="8"/>
       <c r="O43" s="2"/>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" s="8" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C44" s="8">
         <v>7</v>
       </c>
       <c r="D44" s="8" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E44" s="8" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F44" s="8" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="G44" s="8" t="s">
         <v>4</v>
@@ -3933,41 +3935,41 @@
         <v>5</v>
       </c>
       <c r="I44" s="8" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="J44" s="8" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K44" s="9" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="L44" s="8" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="M44" s="8" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="N44" s="8"/>
       <c r="O44" s="2"/>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" s="8" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C45" s="8">
         <v>8</v>
       </c>
       <c r="D45" s="8" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E45" s="8" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="F45" s="8" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="G45" s="8" t="s">
         <v>4</v>
@@ -3976,41 +3978,41 @@
         <v>5</v>
       </c>
       <c r="I45" s="8" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="J45" s="8" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K45" s="9" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="L45" s="8" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="M45" s="8" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="N45" s="8"/>
       <c r="O45" s="2"/>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" s="8" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C46" s="8">
         <v>9</v>
       </c>
       <c r="D46" s="8" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E46" s="8" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F46" s="8" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="G46" s="8" t="s">
         <v>4</v>
@@ -4019,41 +4021,41 @@
         <v>5</v>
       </c>
       <c r="I46" s="8" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="J46" s="8" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K46" s="9" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="L46" s="8" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="M46" s="8" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="N46" s="8"/>
       <c r="O46" s="2"/>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" s="8" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C47" s="8">
         <v>10</v>
       </c>
       <c r="D47" s="8" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E47" s="8" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="F47" s="8" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="G47" s="8" t="s">
         <v>4</v>
@@ -4062,41 +4064,41 @@
         <v>5</v>
       </c>
       <c r="I47" s="8" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="J47" s="8" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K47" s="9" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="L47" s="8" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="M47" s="8" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="N47" s="8"/>
       <c r="O47" s="2"/>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" s="8" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C48" s="8">
         <v>0</v>
       </c>
       <c r="D48" s="8" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E48" s="8" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="F48" s="8" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="G48" s="8" t="s">
         <v>4</v>
@@ -4105,41 +4107,41 @@
         <v>5</v>
       </c>
       <c r="I48" s="8" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="J48" s="8" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K48" s="9" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="L48" s="8" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="M48" s="8" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="N48" s="8"/>
       <c r="O48" s="2"/>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A49" s="8" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C49" s="8">
         <v>1</v>
       </c>
       <c r="D49" s="8" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E49" s="8" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F49" s="8" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="G49" s="8" t="s">
         <v>4</v>
@@ -4148,41 +4150,41 @@
         <v>5</v>
       </c>
       <c r="I49" s="8" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="J49" s="8" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K49" s="9" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="L49" s="8" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="M49" s="8" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="N49" s="8"/>
       <c r="O49" s="2"/>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A50" s="8" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B50" s="8" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C50" s="8">
         <v>2</v>
       </c>
       <c r="D50" s="8" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E50" s="8" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="F50" s="8" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="G50" s="8" t="s">
         <v>4</v>
@@ -4191,41 +4193,41 @@
         <v>5</v>
       </c>
       <c r="I50" s="8" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="J50" s="8" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K50" s="9" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="L50" s="8" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="M50" s="8" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="N50" s="8"/>
       <c r="O50" s="2"/>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A51" s="8" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B51" s="8" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C51" s="8">
         <v>3</v>
       </c>
       <c r="D51" s="8" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E51" s="8" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F51" s="8" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="G51" s="8" t="s">
         <v>4</v>
@@ -4234,41 +4236,41 @@
         <v>5</v>
       </c>
       <c r="I51" s="8" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="J51" s="8" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K51" s="9" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="L51" s="8" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="M51" s="8" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="N51" s="8"/>
       <c r="O51" s="2"/>
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A52" s="8" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B52" s="8" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C52" s="8">
         <v>4</v>
       </c>
       <c r="D52" s="8" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E52" s="8" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="F52" s="8" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="G52" s="8" t="s">
         <v>4</v>
@@ -4277,41 +4279,41 @@
         <v>5</v>
       </c>
       <c r="I52" s="8" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="J52" s="8" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K52" s="9" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="L52" s="8" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="M52" s="8" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="N52" s="8"/>
       <c r="O52" s="2"/>
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A53" s="8" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B53" s="8" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C53" s="8">
         <v>5</v>
       </c>
       <c r="D53" s="8" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E53" s="8" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="F53" s="8" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="G53" s="8" t="s">
         <v>4</v>
@@ -4320,41 +4322,41 @@
         <v>5</v>
       </c>
       <c r="I53" s="8" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="J53" s="8" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K53" s="9" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="L53" s="8" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="M53" s="8" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="N53" s="8"/>
       <c r="O53" s="2"/>
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A54" s="8" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B54" s="8" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C54" s="8">
         <v>6</v>
       </c>
       <c r="D54" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E54" s="8" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="F54" s="8" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="G54" s="8" t="s">
         <v>4</v>
@@ -4363,41 +4365,41 @@
         <v>5</v>
       </c>
       <c r="I54" s="8" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="J54" s="8" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K54" s="9" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="L54" s="8" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="M54" s="8" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="N54" s="8"/>
       <c r="O54" s="2"/>
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A55" s="8" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B55" s="8" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C55" s="8">
         <v>7</v>
       </c>
       <c r="D55" s="8" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E55" s="8" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F55" s="8" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="G55" s="8" t="s">
         <v>4</v>
@@ -4406,41 +4408,41 @@
         <v>5</v>
       </c>
       <c r="I55" s="8" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="J55" s="8" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K55" s="9" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="L55" s="8" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="M55" s="8" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="N55" s="8"/>
       <c r="O55" s="2"/>
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A56" s="8" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B56" s="8" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C56" s="8">
         <v>8</v>
       </c>
       <c r="D56" s="8" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E56" s="8" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="F56" s="8" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="G56" s="8" t="s">
         <v>4</v>
@@ -4449,41 +4451,41 @@
         <v>5</v>
       </c>
       <c r="I56" s="8" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="J56" s="8" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K56" s="9" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="L56" s="8" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="M56" s="8" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="N56" s="8"/>
       <c r="O56" s="2"/>
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A57" s="8" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B57" s="8" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C57" s="8">
         <v>9</v>
       </c>
       <c r="D57" s="8" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E57" s="8" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F57" s="8" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="G57" s="8" t="s">
         <v>4</v>
@@ -4492,41 +4494,41 @@
         <v>5</v>
       </c>
       <c r="I57" s="8" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="J57" s="8" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K57" s="9" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="L57" s="8" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="M57" s="8" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="N57" s="8"/>
       <c r="O57" s="2"/>
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A58" s="8" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B58" s="8" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C58" s="8">
         <v>10</v>
       </c>
       <c r="D58" s="8" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E58" s="8" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="F58" s="8" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="G58" s="8" t="s">
         <v>4</v>
@@ -4535,2384 +4537,2384 @@
         <v>5</v>
       </c>
       <c r="I58" s="8" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="J58" s="8" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K58" s="9" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="L58" s="8" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="M58" s="8" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="N58" s="8"/>
       <c r="O58" s="2"/>
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A59" s="8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B59" s="8" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C59" s="8">
         <v>0</v>
       </c>
       <c r="D59" s="8" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E59" s="8" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="F59" s="8" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="G59" s="8" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H59" s="8" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="I59" s="8" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="J59" s="8" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K59" s="9" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="L59" s="8" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="M59" s="8" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="N59" s="8"/>
       <c r="O59" s="2"/>
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A60" s="8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B60" s="8" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C60" s="8">
         <v>1</v>
       </c>
       <c r="D60" s="8" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E60" s="8" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F60" s="8" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="G60" s="8" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H60" s="8" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="I60" s="8" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="J60" s="8" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K60" s="9" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="L60" s="8" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="M60" s="8" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="N60" s="8"/>
       <c r="O60" s="2"/>
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A61" s="8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B61" s="8" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C61" s="8">
         <v>2</v>
       </c>
       <c r="D61" s="8" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E61" s="8" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="F61" s="8" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="G61" s="8" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H61" s="8" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="I61" s="8" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="J61" s="8" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K61" s="9" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="L61" s="8" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="M61" s="8" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="N61" s="8"/>
       <c r="O61" s="2"/>
     </row>
     <row r="62" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A62" s="8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B62" s="8" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C62" s="8">
         <v>3</v>
       </c>
       <c r="D62" s="8" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E62" s="8" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F62" s="8" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="G62" s="8" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H62" s="8" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="I62" s="8" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="J62" s="8" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K62" s="9" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="L62" s="8" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="M62" s="8" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="N62" s="8"/>
       <c r="O62" s="2"/>
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A63" s="8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B63" s="8" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C63" s="8">
         <v>4</v>
       </c>
       <c r="D63" s="8" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E63" s="8" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="F63" s="8" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="G63" s="8" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H63" s="8" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="I63" s="8" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="J63" s="8" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K63" s="9" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="L63" s="8" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="M63" s="8" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="N63" s="8"/>
       <c r="O63" s="2"/>
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A64" s="8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B64" s="8" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C64" s="8">
         <v>5</v>
       </c>
       <c r="D64" s="8" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E64" s="8" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="F64" s="8" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="G64" s="8" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H64" s="8" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="I64" s="8" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="J64" s="8" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K64" s="9" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="L64" s="8" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="M64" s="8" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="N64" s="8"/>
       <c r="O64" s="2"/>
     </row>
     <row r="65" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A65" s="8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B65" s="8" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C65" s="8">
         <v>6</v>
       </c>
       <c r="D65" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E65" s="8" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="F65" s="8" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="G65" s="8" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H65" s="8" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="I65" s="8" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="J65" s="8" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K65" s="9" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="L65" s="8" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="M65" s="8" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="N65" s="8"/>
       <c r="O65" s="2"/>
     </row>
     <row r="66" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A66" s="8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B66" s="8" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C66" s="8">
         <v>7</v>
       </c>
       <c r="D66" s="8" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E66" s="8" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F66" s="8" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="G66" s="8" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H66" s="8" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="I66" s="8" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="J66" s="8" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K66" s="9" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="L66" s="8" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="M66" s="8" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="N66" s="8"/>
       <c r="O66" s="2"/>
     </row>
     <row r="67" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A67" s="8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B67" s="8" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C67" s="8">
         <v>8</v>
       </c>
       <c r="D67" s="8" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E67" s="8" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="F67" s="8" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="G67" s="8" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H67" s="8" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="I67" s="8" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="J67" s="8" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K67" s="9" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="L67" s="8" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="M67" s="8" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="N67" s="8"/>
       <c r="O67" s="2"/>
     </row>
     <row r="68" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A68" s="8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B68" s="8" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C68" s="8">
         <v>9</v>
       </c>
       <c r="D68" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="E68" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="F68" s="8" t="s">
+        <v>208</v>
+      </c>
+      <c r="G68" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="E68" s="8" t="s">
-        <v>197</v>
-      </c>
-      <c r="F68" s="8" t="s">
-        <v>210</v>
-      </c>
-      <c r="G68" s="8" t="s">
-        <v>57</v>
-      </c>
       <c r="H68" s="8" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="I68" s="8" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="J68" s="8" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K68" s="9" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="L68" s="8" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="M68" s="8" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="N68" s="8"/>
       <c r="O68" s="2"/>
     </row>
     <row r="69" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A69" s="8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B69" s="8" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C69" s="8">
         <v>10</v>
       </c>
       <c r="D69" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="E69" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="F69" s="8" t="s">
+        <v>208</v>
+      </c>
+      <c r="G69" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="H69" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="E69" s="8" t="s">
+      <c r="I69" s="8" t="s">
         <v>198</v>
       </c>
-      <c r="F69" s="8" t="s">
-        <v>210</v>
-      </c>
-      <c r="G69" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="H69" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="I69" s="8" t="s">
-        <v>200</v>
-      </c>
       <c r="J69" s="8" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K69" s="9" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="L69" s="8" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="M69" s="8" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="N69" s="8"/>
       <c r="O69" s="2"/>
     </row>
     <row r="70" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A70" s="8" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B70" s="8" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C70" s="8">
         <v>0</v>
       </c>
       <c r="D70" s="8" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E70" s="8" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="F70" s="8" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="G70" s="8" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H70" s="8" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="I70" s="8" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="J70" s="8" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K70" s="9" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="L70" s="8" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="M70" s="8" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="N70" s="8"/>
       <c r="O70" s="2"/>
     </row>
     <row r="71" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A71" s="8" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B71" s="8" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C71" s="8">
         <v>1</v>
       </c>
       <c r="D71" s="8" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E71" s="8" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F71" s="8" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="G71" s="8" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H71" s="8" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="I71" s="8" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="J71" s="8" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K71" s="9" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="L71" s="8" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="M71" s="8" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="N71" s="8"/>
       <c r="O71" s="2"/>
     </row>
     <row r="72" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A72" s="8" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B72" s="8" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C72" s="8">
         <v>2</v>
       </c>
       <c r="D72" s="8" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E72" s="8" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="F72" s="8" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="G72" s="8" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H72" s="8" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="I72" s="8" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="J72" s="8" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K72" s="9" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="L72" s="8" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="M72" s="8" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="N72" s="8"/>
       <c r="O72" s="2"/>
     </row>
     <row r="73" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A73" s="8" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B73" s="8" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C73" s="8">
         <v>3</v>
       </c>
       <c r="D73" s="8" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E73" s="8" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F73" s="8" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="G73" s="8" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H73" s="8" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="I73" s="8" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="J73" s="8" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K73" s="9" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="L73" s="8" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="M73" s="8" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="N73" s="8"/>
       <c r="O73" s="2"/>
     </row>
     <row r="74" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A74" s="8" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B74" s="8" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C74" s="8">
         <v>4</v>
       </c>
       <c r="D74" s="8" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E74" s="8" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="F74" s="8" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="G74" s="8" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H74" s="8" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="I74" s="8" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="J74" s="8" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K74" s="9" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="L74" s="8" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="M74" s="8" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="N74" s="8"/>
       <c r="O74" s="2"/>
     </row>
     <row r="75" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A75" s="8" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B75" s="8" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C75" s="8">
         <v>5</v>
       </c>
       <c r="D75" s="8" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E75" s="8" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="F75" s="8" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="G75" s="8" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H75" s="8" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="I75" s="8" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="J75" s="8" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K75" s="9" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="L75" s="8" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="M75" s="8" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="N75" s="8"/>
       <c r="O75" s="2"/>
     </row>
     <row r="76" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A76" s="8" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B76" s="8" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C76" s="8">
         <v>6</v>
       </c>
       <c r="D76" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E76" s="8" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="F76" s="8" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="G76" s="8" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H76" s="8" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="I76" s="8" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="J76" s="8" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K76" s="9" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="L76" s="8" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="M76" s="8" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="N76" s="8"/>
       <c r="O76" s="2"/>
     </row>
     <row r="77" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A77" s="8" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B77" s="8" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C77" s="8">
         <v>7</v>
       </c>
       <c r="D77" s="8" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E77" s="8" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F77" s="8" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="G77" s="8" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H77" s="8" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="I77" s="8" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="J77" s="8" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K77" s="9" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="L77" s="8" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="M77" s="8" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="N77" s="8"/>
       <c r="O77" s="2"/>
     </row>
     <row r="78" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A78" s="8" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B78" s="8" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C78" s="8">
         <v>8</v>
       </c>
       <c r="D78" s="8" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E78" s="8" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="F78" s="8" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="G78" s="8" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H78" s="8" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="I78" s="8" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="J78" s="8" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K78" s="9" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="L78" s="8" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="M78" s="8" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="N78" s="8"/>
       <c r="O78" s="2"/>
     </row>
     <row r="79" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A79" s="8" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B79" s="8" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C79" s="8">
         <v>9</v>
       </c>
       <c r="D79" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="E79" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="F79" s="8" t="s">
+        <v>208</v>
+      </c>
+      <c r="G79" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="E79" s="8" t="s">
-        <v>197</v>
-      </c>
-      <c r="F79" s="8" t="s">
-        <v>210</v>
-      </c>
-      <c r="G79" s="8" t="s">
-        <v>57</v>
-      </c>
       <c r="H79" s="8" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="I79" s="8" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="J79" s="8" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K79" s="9" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="L79" s="8" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="M79" s="8" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="N79" s="8"/>
       <c r="O79" s="2"/>
     </row>
     <row r="80" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A80" s="8" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B80" s="8" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C80" s="8">
         <v>10</v>
       </c>
       <c r="D80" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="E80" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="F80" s="8" t="s">
+        <v>208</v>
+      </c>
+      <c r="G80" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="H80" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="E80" s="8" t="s">
+      <c r="I80" s="8" t="s">
         <v>198</v>
       </c>
-      <c r="F80" s="8" t="s">
-        <v>210</v>
-      </c>
-      <c r="G80" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="H80" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="I80" s="8" t="s">
-        <v>200</v>
-      </c>
       <c r="J80" s="8" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K80" s="9" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="L80" s="8" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="M80" s="8" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="N80" s="8"/>
       <c r="O80" s="2"/>
     </row>
     <row r="81" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A81" s="8" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B81" s="8" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C81" s="8">
         <v>0</v>
       </c>
       <c r="D81" s="8" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E81" s="8" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="F81" s="8" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="G81" s="8" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H81" s="8" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="I81" s="8" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="J81" s="8" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K81" s="9" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="L81" s="8" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="M81" s="8" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="N81" s="8"/>
       <c r="O81" s="2"/>
     </row>
     <row r="82" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A82" s="8" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B82" s="8" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C82" s="8">
         <v>1</v>
       </c>
       <c r="D82" s="8" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E82" s="8" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F82" s="8" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="G82" s="8" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H82" s="8" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="I82" s="8" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="J82" s="8" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K82" s="9" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="L82" s="8" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="M82" s="8" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="N82" s="8"/>
       <c r="O82" s="2"/>
     </row>
     <row r="83" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A83" s="8" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B83" s="8" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C83" s="8">
         <v>2</v>
       </c>
       <c r="D83" s="8" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E83" s="8" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="F83" s="8" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="G83" s="8" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H83" s="8" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="I83" s="8" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="J83" s="8" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K83" s="9" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="L83" s="8" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="M83" s="8" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="N83" s="8"/>
       <c r="O83" s="2"/>
     </row>
     <row r="84" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A84" s="8" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B84" s="8" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C84" s="8">
         <v>3</v>
       </c>
       <c r="D84" s="8" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E84" s="8" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F84" s="8" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="G84" s="8" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H84" s="8" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="I84" s="8" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="J84" s="8" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K84" s="9" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="L84" s="8" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="M84" s="8" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="N84" s="8"/>
       <c r="O84" s="2"/>
     </row>
     <row r="85" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A85" s="8" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B85" s="8" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C85" s="8">
         <v>4</v>
       </c>
       <c r="D85" s="8" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E85" s="8" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="F85" s="8" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="G85" s="8" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H85" s="8" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="I85" s="8" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="J85" s="8" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K85" s="9" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="L85" s="8" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="M85" s="8" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="N85" s="8"/>
       <c r="O85" s="2"/>
     </row>
     <row r="86" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A86" s="8" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B86" s="8" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C86" s="8">
         <v>5</v>
       </c>
       <c r="D86" s="8" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E86" s="8" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="F86" s="8" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="G86" s="8" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H86" s="8" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="I86" s="8" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="J86" s="8" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K86" s="9" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="L86" s="8" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="M86" s="8" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="N86" s="8"/>
       <c r="O86" s="2"/>
     </row>
     <row r="87" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A87" s="8" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B87" s="8" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C87" s="8">
         <v>6</v>
       </c>
       <c r="D87" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E87" s="8" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="F87" s="8" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="G87" s="8" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H87" s="8" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="I87" s="8" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="J87" s="8" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K87" s="9" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="L87" s="8" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="M87" s="8" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="N87" s="8"/>
       <c r="O87" s="2"/>
     </row>
     <row r="88" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A88" s="8" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B88" s="8" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C88" s="8">
         <v>7</v>
       </c>
       <c r="D88" s="8" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E88" s="8" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F88" s="8" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="G88" s="8" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H88" s="8" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="I88" s="8" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="J88" s="8" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K88" s="9" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="L88" s="8" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="M88" s="8" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="N88" s="8"/>
       <c r="O88" s="2"/>
     </row>
     <row r="89" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A89" s="8" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B89" s="8" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C89" s="8">
         <v>8</v>
       </c>
       <c r="D89" s="8" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E89" s="8" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="F89" s="8" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="G89" s="8" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H89" s="8" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="I89" s="8" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="J89" s="8" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K89" s="9" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="L89" s="8" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="M89" s="8" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="N89" s="8"/>
       <c r="O89" s="2"/>
     </row>
     <row r="90" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A90" s="8" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B90" s="8" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C90" s="8">
         <v>9</v>
       </c>
       <c r="D90" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="E90" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="F90" s="8" t="s">
+        <v>208</v>
+      </c>
+      <c r="G90" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="E90" s="8" t="s">
-        <v>197</v>
-      </c>
-      <c r="F90" s="8" t="s">
-        <v>210</v>
-      </c>
-      <c r="G90" s="8" t="s">
-        <v>57</v>
-      </c>
       <c r="H90" s="8" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="I90" s="8" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="J90" s="8" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K90" s="9" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="L90" s="8" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="M90" s="8" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="N90" s="8"/>
       <c r="O90" s="2"/>
     </row>
     <row r="91" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A91" s="8" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B91" s="8" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C91" s="8">
         <v>10</v>
       </c>
       <c r="D91" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="E91" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="F91" s="8" t="s">
+        <v>208</v>
+      </c>
+      <c r="G91" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="H91" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="E91" s="8" t="s">
+      <c r="I91" s="8" t="s">
         <v>198</v>
       </c>
-      <c r="F91" s="8" t="s">
-        <v>210</v>
-      </c>
-      <c r="G91" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="H91" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="I91" s="8" t="s">
-        <v>200</v>
-      </c>
       <c r="J91" s="8" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K91" s="9" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="L91" s="8" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="M91" s="8" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="N91" s="8"/>
       <c r="O91" s="2"/>
     </row>
     <row r="92" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A92" s="8" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B92" s="8" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C92" s="8">
         <v>0</v>
       </c>
       <c r="D92" s="8" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E92" s="8" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="F92" s="8" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="G92" s="8" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H92" s="8" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="I92" s="8" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="J92" s="8" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K92" s="9" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="L92" s="8" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="M92" s="8" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="N92" s="8"/>
       <c r="O92" s="2"/>
     </row>
     <row r="93" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A93" s="8" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B93" s="8" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C93" s="8">
         <v>1</v>
       </c>
       <c r="D93" s="8" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E93" s="8" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F93" s="8" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="G93" s="8" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H93" s="8" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="I93" s="8" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="J93" s="8" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K93" s="9" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="L93" s="8" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="M93" s="8" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="N93" s="8"/>
       <c r="O93" s="2"/>
     </row>
     <row r="94" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A94" s="8" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B94" s="8" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C94" s="8">
         <v>2</v>
       </c>
       <c r="D94" s="8" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E94" s="8" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="F94" s="8" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="G94" s="8" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H94" s="8" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="I94" s="8" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="J94" s="8" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K94" s="9" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="L94" s="8" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="M94" s="8" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="N94" s="8"/>
       <c r="O94" s="2"/>
     </row>
     <row r="95" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A95" s="8" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B95" s="8" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C95" s="8">
         <v>3</v>
       </c>
       <c r="D95" s="8" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E95" s="8" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F95" s="8" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="G95" s="8" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H95" s="8" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="I95" s="8" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="J95" s="8" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K95" s="9" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="L95" s="8" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="M95" s="8" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="N95" s="8"/>
       <c r="O95" s="2"/>
     </row>
     <row r="96" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A96" s="8" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B96" s="8" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C96" s="8">
         <v>4</v>
       </c>
       <c r="D96" s="8" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E96" s="8" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="F96" s="8" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="G96" s="8" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H96" s="8" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="I96" s="8" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="J96" s="8" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K96" s="9" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="L96" s="8" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="M96" s="8" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="N96" s="8"/>
       <c r="O96" s="2"/>
     </row>
     <row r="97" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A97" s="8" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B97" s="8" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C97" s="8">
         <v>5</v>
       </c>
       <c r="D97" s="8" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E97" s="8" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="F97" s="8" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="G97" s="8" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H97" s="8" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="I97" s="8" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="J97" s="8" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K97" s="9" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="L97" s="8" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="M97" s="8" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="N97" s="8"/>
       <c r="O97" s="2"/>
     </row>
     <row r="98" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A98" s="8" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B98" s="8" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C98" s="8">
         <v>6</v>
       </c>
       <c r="D98" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E98" s="8" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="F98" s="8" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="G98" s="8" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H98" s="8" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="I98" s="8" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="J98" s="8" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K98" s="9" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="L98" s="8" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="M98" s="8" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="N98" s="8"/>
       <c r="O98" s="2"/>
     </row>
     <row r="99" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A99" s="8" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B99" s="8" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C99" s="8">
         <v>7</v>
       </c>
       <c r="D99" s="8" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E99" s="8" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F99" s="8" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="G99" s="8" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H99" s="8" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="I99" s="8" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="J99" s="8" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K99" s="9" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="L99" s="8" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="M99" s="8" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="N99" s="8"/>
       <c r="O99" s="2"/>
     </row>
     <row r="100" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A100" s="8" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B100" s="8" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C100" s="8">
         <v>8</v>
       </c>
       <c r="D100" s="8" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E100" s="8" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="F100" s="8" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="G100" s="8" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H100" s="8" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="I100" s="8" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="J100" s="8" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K100" s="9" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="L100" s="8" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="M100" s="8" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="N100" s="8"/>
       <c r="O100" s="2"/>
     </row>
     <row r="101" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A101" s="8" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B101" s="8" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C101" s="8">
         <v>9</v>
       </c>
       <c r="D101" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="E101" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="F101" s="8" t="s">
+        <v>208</v>
+      </c>
+      <c r="G101" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="E101" s="8" t="s">
-        <v>197</v>
-      </c>
-      <c r="F101" s="8" t="s">
-        <v>210</v>
-      </c>
-      <c r="G101" s="8" t="s">
-        <v>57</v>
-      </c>
       <c r="H101" s="8" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="I101" s="8" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="J101" s="8" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K101" s="9" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="L101" s="8" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="M101" s="8" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="N101" s="8"/>
       <c r="O101" s="2"/>
     </row>
     <row r="102" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A102" s="8" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B102" s="8" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C102" s="8">
         <v>10</v>
       </c>
       <c r="D102" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="E102" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="F102" s="8" t="s">
+        <v>208</v>
+      </c>
+      <c r="G102" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="H102" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="E102" s="8" t="s">
+      <c r="I102" s="8" t="s">
         <v>198</v>
       </c>
-      <c r="F102" s="8" t="s">
-        <v>210</v>
-      </c>
-      <c r="G102" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="H102" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="I102" s="8" t="s">
-        <v>200</v>
-      </c>
       <c r="J102" s="8" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K102" s="9" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="L102" s="8" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="M102" s="8" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="N102" s="8"/>
       <c r="O102" s="2"/>
     </row>
     <row r="103" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A103" s="8" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B103" s="8" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C103" s="8">
         <v>0</v>
       </c>
       <c r="D103" s="8" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E103" s="8" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="F103" s="8" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="G103" s="8" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H103" s="8" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="I103" s="8" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="J103" s="8" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K103" s="9" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="L103" s="8" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="M103" s="8" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="N103" s="8"/>
       <c r="O103" s="2"/>
     </row>
     <row r="104" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A104" s="8" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B104" s="8" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C104" s="8">
         <v>1</v>
       </c>
       <c r="D104" s="8" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E104" s="8" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F104" s="8" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="G104" s="8" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H104" s="8" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="I104" s="8" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="J104" s="8" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K104" s="9" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="L104" s="8" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="M104" s="8" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="N104" s="8"/>
       <c r="O104" s="2"/>
     </row>
     <row r="105" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A105" s="8" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B105" s="8" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C105" s="8">
         <v>2</v>
       </c>
       <c r="D105" s="8" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E105" s="8" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="F105" s="8" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="G105" s="8" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H105" s="8" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="I105" s="8" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="J105" s="8" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K105" s="9" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="L105" s="8" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="M105" s="8" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="N105" s="8"/>
       <c r="O105" s="2"/>
     </row>
     <row r="106" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A106" s="8" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B106" s="8" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C106" s="8">
         <v>3</v>
       </c>
       <c r="D106" s="8" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E106" s="8" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F106" s="8" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="G106" s="8" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H106" s="8" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="I106" s="8" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="J106" s="8" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K106" s="9" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="L106" s="8" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="M106" s="8" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="N106" s="8"/>
       <c r="O106" s="2"/>
     </row>
     <row r="107" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A107" s="8" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B107" s="8" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C107" s="8">
         <v>4</v>
       </c>
       <c r="D107" s="8" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E107" s="8" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="F107" s="8" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="G107" s="8" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H107" s="8" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="I107" s="8" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="J107" s="8" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K107" s="9" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="L107" s="8" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="M107" s="8" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="N107" s="8"/>
       <c r="O107" s="2"/>
     </row>
     <row r="108" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A108" s="8" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B108" s="8" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C108" s="8">
         <v>5</v>
       </c>
       <c r="D108" s="8" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E108" s="8" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="F108" s="8" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="G108" s="8" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H108" s="8" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="I108" s="8" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="J108" s="8" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K108" s="9" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="L108" s="8" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="M108" s="8" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="N108" s="8"/>
       <c r="O108" s="2"/>
     </row>
     <row r="109" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A109" s="8" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B109" s="8" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C109" s="8">
         <v>6</v>
       </c>
       <c r="D109" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E109" s="8" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="F109" s="8" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="G109" s="8" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H109" s="8" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="I109" s="8" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="J109" s="8" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K109" s="9" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="L109" s="8" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="M109" s="8" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="N109" s="8"/>
       <c r="O109" s="2"/>
     </row>
     <row r="110" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A110" s="8" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B110" s="8" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C110" s="8">
         <v>7</v>
       </c>
       <c r="D110" s="8" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E110" s="8" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F110" s="8" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="G110" s="8" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H110" s="8" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="I110" s="8" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="J110" s="8" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K110" s="9" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="L110" s="8" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="M110" s="8" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="N110" s="8"/>
       <c r="O110" s="2"/>
     </row>
     <row r="111" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A111" s="8" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B111" s="8" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C111" s="8">
         <v>8</v>
       </c>
       <c r="D111" s="8" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E111" s="8" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="F111" s="8" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="G111" s="8" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H111" s="8" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="I111" s="8" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="J111" s="8" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K111" s="9" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="L111" s="8" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="M111" s="8" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="N111" s="8"/>
       <c r="O111" s="2"/>
     </row>
     <row r="112" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A112" s="8" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B112" s="8" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C112" s="8">
         <v>9</v>
       </c>
       <c r="D112" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="E112" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="F112" s="8" t="s">
+        <v>208</v>
+      </c>
+      <c r="G112" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="E112" s="8" t="s">
-        <v>197</v>
-      </c>
-      <c r="F112" s="8" t="s">
-        <v>210</v>
-      </c>
-      <c r="G112" s="8" t="s">
-        <v>57</v>
-      </c>
       <c r="H112" s="8" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="I112" s="8" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="J112" s="8" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K112" s="9" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="L112" s="8" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="M112" s="8" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="N112" s="8"/>
       <c r="O112" s="2"/>
     </row>
     <row r="113" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A113" s="8" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B113" s="8" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C113" s="8">
         <v>10</v>
       </c>
       <c r="D113" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="E113" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="F113" s="8" t="s">
+        <v>208</v>
+      </c>
+      <c r="G113" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="H113" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="E113" s="8" t="s">
+      <c r="I113" s="8" t="s">
         <v>198</v>
       </c>
-      <c r="F113" s="8" t="s">
-        <v>210</v>
-      </c>
-      <c r="G113" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="H113" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="I113" s="8" t="s">
-        <v>200</v>
-      </c>
       <c r="J113" s="8" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K113" s="9" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="L113" s="8" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="M113" s="8" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="N113" s="8"/>
       <c r="O113" s="2"/>
@@ -6932,7 +6934,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
@@ -6956,13 +6958,13 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -6970,7 +6972,7 @@
         <v>9</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C3" s="12">
         <v>8</v>
@@ -6978,21 +6980,21 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C5" s="12">
         <v>0</v>
@@ -7000,10 +7002,10 @@
     </row>
     <row r="6" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C6" s="12">
         <v>0</v>
@@ -7011,32 +7013,32 @@
     </row>
     <row r="7" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C9" s="12">
         <v>87</v>
@@ -7047,21 +7049,21 @@
         <v>12</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -7069,7 +7071,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C12" s="12" t="s">
         <v>13</v>
@@ -7080,7 +7082,7 @@
         <v>10</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C13" s="12" t="s">
         <v>14</v>
@@ -7091,10 +7093,10 @@
         <v>15</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -7102,10 +7104,10 @@
         <v>16</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -7113,10 +7115,10 @@
         <v>17</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -7124,27 +7126,27 @@
         <v>18</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C17" s="12"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="10" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="10" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C19" s="12">
         <v>0</v>
@@ -7183,65 +7185,65 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="90" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C7" s="16">
         <v>20170125</v>
@@ -7249,21 +7251,21 @@
     </row>
     <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="48" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C9" s="16">
         <v>0.5</v>
@@ -7271,10 +7273,10 @@
     </row>
     <row r="10" spans="1:3" ht="18" x14ac:dyDescent="0.25">
       <c r="A10" s="15" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C10" s="16">
         <v>3</v>
@@ -7282,32 +7284,32 @@
     </row>
     <row r="11" spans="1:3" ht="108" x14ac:dyDescent="0.25">
       <c r="A11" s="15" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C11" s="16" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="15" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C12" s="16" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="18" x14ac:dyDescent="0.25">
       <c r="A13" s="15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C13" s="16">
         <v>1.5</v>
@@ -7315,10 +7317,10 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C14" s="16">
         <v>0.05</v>
@@ -7326,54 +7328,54 @@
     </row>
     <row r="15" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" s="13" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B15" s="17" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C15" s="16" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="78" x14ac:dyDescent="0.25">
       <c r="A16" s="13" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C16" s="16" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="18" x14ac:dyDescent="0.25">
       <c r="A17" s="13" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A18" s="15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A19" s="15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C19" s="16">
         <v>10000</v>
@@ -7381,10 +7383,10 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C20" s="16">
         <v>0.1</v>
@@ -7392,21 +7394,21 @@
     </row>
     <row r="21" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="13" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="15" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C22" s="16">
         <v>0.5</v>
@@ -7414,10 +7416,10 @@
     </row>
     <row r="23" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A23" s="15" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C23" s="16">
         <v>0.95</v>
@@ -7425,10 +7427,10 @@
     </row>
     <row r="24" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="15" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C24" s="16">
         <v>1000</v>
@@ -7436,35 +7438,35 @@
     </row>
     <row r="25" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A25" s="13" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B25" s="17" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A26" s="18" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B26" s="17" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A27" s="13" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B27" s="12" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
   </sheetData>
